--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE8C4C-5D20-4820-9D77-29BDD459F2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="6780" yWindow="1545" windowWidth="24915" windowHeight="20910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -196,7 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,19 +547,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.399999999999999">
+    <row r="1" spans="1:18" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -614,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.399999999999999">
+    <row r="2" spans="1:18" ht="16.5">
       <c r="A2" s="3">
         <v>11001</v>
       </c>
@@ -654,7 +657,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="17.399999999999999">
+    <row r="3" spans="1:18" ht="16.5">
       <c r="A3" s="3">
         <v>11002</v>
       </c>
@@ -690,7 +693,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="17.399999999999999">
+    <row r="4" spans="1:18" ht="16.5">
       <c r="A4" s="3">
         <v>11003</v>
       </c>
@@ -724,7 +727,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="17.399999999999999">
+    <row r="5" spans="1:18" ht="16.5">
       <c r="A5" s="3">
         <v>21001</v>
       </c>
@@ -752,7 +755,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="17.399999999999999">
+    <row r="6" spans="1:18" ht="16.5">
       <c r="A6" s="3">
         <v>21002</v>
       </c>
@@ -780,7 +783,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="17.399999999999999">
+    <row r="7" spans="1:18" ht="16.5">
       <c r="A7" s="3">
         <v>21003</v>
       </c>
@@ -808,7 +811,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="17.399999999999999">
+    <row r="8" spans="1:18" ht="16.5">
       <c r="A8" s="3">
         <v>21004</v>
       </c>
@@ -818,7 +821,9 @@
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>90004</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -834,7 +839,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="17.399999999999999">
+    <row r="9" spans="1:18" ht="16.5">
       <c r="A9" s="3">
         <v>21005</v>
       </c>
@@ -844,7 +849,9 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>90005</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -860,7 +867,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="17.399999999999999">
+    <row r="10" spans="1:18" ht="16.5">
       <c r="A10" s="3">
         <v>21006</v>
       </c>
@@ -870,7 +877,9 @@
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>90006</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE8C4C-5D20-4820-9D77-29BDD459F2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="1545" windowWidth="24915" windowHeight="20910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="1545" windowWidth="24915" windowHeight="20910" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -547,18 +546,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="5" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5">

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -686,13 +686,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
-        <v>2001</v>
+        <v>1003</v>
       </c>
       <c r="K3" s="3">
         <v>0.3</v>
       </c>
       <c r="L3" s="3">
-        <v>2003</v>
+        <v>3003</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -114,13 +114,25 @@
   </si>
   <si>
     <t>카드_파이어볼</t>
+  </si>
+  <si>
+    <t>만복도 채우는 스킬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 20 소모하는 스킬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -142,11 +154,19 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,10 +213,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,16 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -903,6 +923,62 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
+    <row r="11" spans="1:18" ht="16.5">
+      <c r="A11" s="3">
+        <v>31001</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5">
+      <c r="A12" s="3">
+        <v>31002</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100002</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -117,22 +117,16 @@
   </si>
   <si>
     <t>만복도 채우는 스킬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>만복도 20 소모하는 스킬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -152,13 +146,6 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -213,10 +200,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +557,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -931,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3">
         <v>100001</v>
@@ -956,10 +943,10 @@
         <v>31002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3">
         <v>100002</v>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -120,13 +120,30 @@
   </si>
   <si>
     <t>만복도 20 소모하는 스킬</t>
+  </si>
+  <si>
+    <t>카드 손으로 소환</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 뽑을 카드로 소환</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 그레이브로 소환</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -152,6 +169,13 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -554,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A13" sqref="A13:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -966,6 +990,90 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
+    <row r="13" spans="1:18" ht="16.5">
+      <c r="A13" s="3">
+        <v>41001</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3">
+        <v>100011</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5">
+      <c r="A14" s="3">
+        <v>41002</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3">
+        <v>100012</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5">
+      <c r="A15" s="3">
+        <v>41003</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100013</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>카드 그레이브로 소환</t>
+  </si>
+  <si>
+    <t>카드 삼키기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -180,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +199,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB5E6A2"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -221,13 +235,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:R15"/>
+      <selection activeCell="A16" sqref="A16:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
@@ -1074,6 +1091,34 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
+    <row r="16" spans="1:18" ht="16.5">
+      <c r="A16" s="4">
+        <v>41004</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100014</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD3EDA-72CD-4C36-9E12-8B57260430EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="1545" windowWidth="24915" windowHeight="20910" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -145,12 +146,20 @@
   <si>
     <t>Repeat</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -594,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:R16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
@@ -1119,6 +1128,62 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
+    <row r="17" spans="1:18" ht="16.5">
+      <c r="A17" s="3">
+        <v>810010</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3">
+        <v>8100100</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" ht="16.5">
+      <c r="A18" s="3">
+        <v>810020</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8100200</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD3EDA-72CD-4C36-9E12-8B57260430EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326DC610-9E61-4F87-8E34-189E7CE681FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>루시_자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_핥기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_노려보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_찌르고 자르기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1184,6 +1196,90 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
+    <row r="19" spans="1:18" ht="16.5">
+      <c r="A19" s="3">
+        <v>810030</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8100300</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5">
+      <c r="A20" s="3">
+        <v>810040</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8100400</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5">
+      <c r="A21" s="3">
+        <v>810050</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8100500</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326DC610-9E61-4F87-8E34-189E7CE681FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD34E6-77B2-40AC-A03A-19808951F02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>루시_찌르고 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시_다지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1280,6 +1288,62 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
+    <row r="22" spans="1:18" ht="16.5">
+      <c r="A22" s="3">
+        <v>810060</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8100600</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5">
+      <c r="A23" s="3">
+        <v>810070</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8100700</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD34E6-77B2-40AC-A03A-19808951F02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34083C20-5019-4503-9F78-6CC56C5A8581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>임프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겹주름 위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌충</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1344,6 +1356,90 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
+    <row r="24" spans="1:18" ht="16.5">
+      <c r="A24" s="3">
+        <v>810080</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8100800</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5">
+      <c r="A25" s="3">
+        <v>810090</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3">
+        <v>8100900</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" ht="16.5">
+      <c r="A26" s="3">
+        <v>810100</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8101000</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34083C20-5019-4503-9F78-6CC56C5A8581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CC62A-E555-41BD-A7E7-4DD9B92E6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -185,6 +185,14 @@
   </si>
   <si>
     <t>촌충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메바뇌염</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1440,6 +1448,62 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
+    <row r="27" spans="1:18" ht="16.5">
+      <c r="A27" s="3">
+        <v>810110</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8101100</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" ht="16.5">
+      <c r="A28" s="3">
+        <v>810120</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8101200</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CC62A-E555-41BD-A7E7-4DD9B92E6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3CA8D9-8568-4B2A-8F53-1092C8ECD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>아메바뇌염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1504,6 +1516,90 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
+    <row r="29" spans="1:18" ht="16.5">
+      <c r="A29" s="3">
+        <v>810130</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3">
+        <v>8101300</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5">
+      <c r="A30" s="3">
+        <v>810140</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8101400</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" ht="16.5">
+      <c r="A31" s="3">
+        <v>810150</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3">
+        <v>8101500</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3CA8D9-8568-4B2A-8F53-1092C8ECD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C89D3-0AFE-4637-BDB5-52362C87FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>혈토 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1600,6 +1608,62 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
+    <row r="32" spans="1:18" ht="16.5">
+      <c r="A32" s="3">
+        <v>810160</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8101600</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" ht="16.5">
+      <c r="A33" s="3">
+        <v>810170</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3">
+        <v>8101700</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93C89D3-0AFE-4637-BDB5-52362C87FD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8CEEDF-ABB0-45E0-A391-6CA2E7EE6065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -213,6 +213,42 @@
   </si>
   <si>
     <t>두입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크게 한입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포만감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골동품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 숨결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프 웰링턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무라마사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,29 +700,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5">
+    <row r="1" spans="1:18" ht="17">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -742,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16.5">
+    <row r="2" spans="1:18" ht="17">
       <c r="A2" s="3">
         <v>11001</v>
       </c>
@@ -782,7 +818,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="16.5">
+    <row r="3" spans="1:18" ht="17">
       <c r="A3" s="3">
         <v>11002</v>
       </c>
@@ -818,7 +854,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="16.5">
+    <row r="4" spans="1:18" ht="17">
       <c r="A4" s="3">
         <v>11003</v>
       </c>
@@ -852,7 +888,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="16.5">
+    <row r="5" spans="1:18" ht="17">
       <c r="A5" s="3">
         <v>21001</v>
       </c>
@@ -880,7 +916,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="16.5">
+    <row r="6" spans="1:18" ht="17">
       <c r="A6" s="3">
         <v>21002</v>
       </c>
@@ -908,7 +944,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="16.5">
+    <row r="7" spans="1:18" ht="17">
       <c r="A7" s="3">
         <v>21003</v>
       </c>
@@ -936,7 +972,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="16.5">
+    <row r="8" spans="1:18" ht="17">
       <c r="A8" s="3">
         <v>21004</v>
       </c>
@@ -964,7 +1000,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="16.5">
+    <row r="9" spans="1:18" ht="17">
       <c r="A9" s="3">
         <v>21005</v>
       </c>
@@ -992,7 +1028,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5">
+    <row r="10" spans="1:18" ht="17">
       <c r="A10" s="3">
         <v>21006</v>
       </c>
@@ -1020,7 +1056,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="16.5">
+    <row r="11" spans="1:18" ht="17">
       <c r="A11" s="3">
         <v>31001</v>
       </c>
@@ -1048,7 +1084,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="16.5">
+    <row r="12" spans="1:18" ht="17">
       <c r="A12" s="3">
         <v>31002</v>
       </c>
@@ -1076,7 +1112,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="16.5">
+    <row r="13" spans="1:18" ht="17">
       <c r="A13" s="3">
         <v>41001</v>
       </c>
@@ -1104,7 +1140,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="16.5">
+    <row r="14" spans="1:18" ht="17">
       <c r="A14" s="3">
         <v>41002</v>
       </c>
@@ -1132,7 +1168,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="16.5">
+    <row r="15" spans="1:18" ht="17">
       <c r="A15" s="3">
         <v>41003</v>
       </c>
@@ -1160,7 +1196,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="16.5">
+    <row r="16" spans="1:18" ht="17">
       <c r="A16" s="4">
         <v>41004</v>
       </c>
@@ -1188,7 +1224,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="16.5">
+    <row r="17" spans="1:18" ht="17">
       <c r="A17" s="3">
         <v>810010</v>
       </c>
@@ -1216,7 +1252,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="16.5">
+    <row r="18" spans="1:18" ht="17">
       <c r="A18" s="3">
         <v>810020</v>
       </c>
@@ -1244,7 +1280,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="16.5">
+    <row r="19" spans="1:18" ht="17">
       <c r="A19" s="3">
         <v>810030</v>
       </c>
@@ -1272,7 +1308,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="16.5">
+    <row r="20" spans="1:18" ht="17">
       <c r="A20" s="3">
         <v>810040</v>
       </c>
@@ -1300,7 +1336,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5">
+    <row r="21" spans="1:18" ht="17">
       <c r="A21" s="3">
         <v>810050</v>
       </c>
@@ -1328,7 +1364,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5">
+    <row r="22" spans="1:18" ht="17">
       <c r="A22" s="3">
         <v>810060</v>
       </c>
@@ -1356,7 +1392,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="16.5">
+    <row r="23" spans="1:18" ht="17">
       <c r="A23" s="3">
         <v>810070</v>
       </c>
@@ -1384,7 +1420,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="16.5">
+    <row r="24" spans="1:18" ht="17">
       <c r="A24" s="3">
         <v>810080</v>
       </c>
@@ -1412,7 +1448,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="16.5">
+    <row r="25" spans="1:18" ht="17">
       <c r="A25" s="3">
         <v>810090</v>
       </c>
@@ -1440,7 +1476,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5">
+    <row r="26" spans="1:18" ht="17">
       <c r="A26" s="3">
         <v>810100</v>
       </c>
@@ -1468,7 +1504,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="16.5">
+    <row r="27" spans="1:18" ht="17">
       <c r="A27" s="3">
         <v>810110</v>
       </c>
@@ -1496,7 +1532,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="16.5">
+    <row r="28" spans="1:18" ht="17">
       <c r="A28" s="3">
         <v>810120</v>
       </c>
@@ -1524,7 +1560,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="16.5">
+    <row r="29" spans="1:18" ht="17">
       <c r="A29" s="3">
         <v>810130</v>
       </c>
@@ -1552,7 +1588,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5">
+    <row r="30" spans="1:18" ht="17">
       <c r="A30" s="3">
         <v>810140</v>
       </c>
@@ -1580,7 +1616,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="16.5">
+    <row r="31" spans="1:18" ht="17">
       <c r="A31" s="3">
         <v>810150</v>
       </c>
@@ -1608,7 +1644,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="16.5">
+    <row r="32" spans="1:18" ht="17">
       <c r="A32" s="3">
         <v>810160</v>
       </c>
@@ -1636,7 +1672,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="16.5">
+    <row r="33" spans="1:18" ht="17">
       <c r="A33" s="3">
         <v>810170</v>
       </c>
@@ -1664,6 +1700,258 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
+    <row r="34" spans="1:18" ht="17">
+      <c r="A34" s="3">
+        <v>810180</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3">
+        <v>8101800</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" ht="17">
+      <c r="A35" s="3">
+        <v>810190</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8101900</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" ht="17">
+      <c r="A36" s="3">
+        <v>810200</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8102000</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" ht="17">
+      <c r="A37" s="3">
+        <v>810210</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="3">
+        <v>8102100</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" ht="17">
+      <c r="A38" s="3">
+        <v>810220</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3">
+        <v>8102200</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" ht="17">
+      <c r="A39" s="3">
+        <v>810230</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8102300</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" ht="17">
+      <c r="A40" s="3">
+        <v>810240</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="3">
+        <v>8102400</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" ht="17">
+      <c r="A41" s="3">
+        <v>810250</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8102500</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" ht="17">
+      <c r="A42" s="3">
+        <v>810260</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8102600</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8CEEDF-ABB0-45E0-A391-6CA2E7EE6065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE73C5-FCA2-4C23-9A30-0C2EA5307F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -249,6 +249,26 @@
   </si>
   <si>
     <t>무라마사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헛구역질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대의 명약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 아귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +329,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +376,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1952,6 +1981,146 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
+    <row r="43" spans="1:18" ht="17">
+      <c r="A43" s="5">
+        <v>810270</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="5">
+        <v>8102700</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" ht="17">
+      <c r="A44" s="5">
+        <v>810280</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="5">
+        <v>8102800</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:18" ht="17">
+      <c r="A45" s="3">
+        <v>810290</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8102900</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" ht="17">
+      <c r="A46" s="3">
+        <v>810300</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3">
+        <v>8103000</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="17">
+      <c r="A47" s="3">
+        <v>810310</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3">
+        <v>8103100</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE73C5-FCA2-4C23-9A30-0C2EA5307F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62CA458-624C-439E-ACB5-D8368C4BCB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3732" yWindow="3732" windowWidth="23040" windowHeight="13512" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -732,26 +732,27 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="1"/>
+    <col min="4" max="4" width="13.296875" style="1" customWidth="1"/>
+    <col min="5" max="9" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="1"/>
+    <col min="16" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17">
+    <row r="1" spans="1:18" ht="17.399999999999999">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -807,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17">
+    <row r="2" spans="1:18" ht="17.399999999999999">
       <c r="A2" s="3">
         <v>11001</v>
       </c>
@@ -847,7 +848,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="17">
+    <row r="3" spans="1:18" ht="17.399999999999999">
       <c r="A3" s="3">
         <v>11002</v>
       </c>
@@ -883,7 +884,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="17">
+    <row r="4" spans="1:18" ht="17.399999999999999">
       <c r="A4" s="3">
         <v>11003</v>
       </c>
@@ -917,7 +918,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="17">
+    <row r="5" spans="1:18" ht="17.399999999999999">
       <c r="A5" s="3">
         <v>21001</v>
       </c>
@@ -945,7 +946,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="17">
+    <row r="6" spans="1:18" ht="17.399999999999999">
       <c r="A6" s="3">
         <v>21002</v>
       </c>
@@ -973,7 +974,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="17">
+    <row r="7" spans="1:18" ht="17.399999999999999">
       <c r="A7" s="3">
         <v>21003</v>
       </c>
@@ -1001,7 +1002,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="17">
+    <row r="8" spans="1:18" ht="17.399999999999999">
       <c r="A8" s="3">
         <v>21004</v>
       </c>
@@ -1029,7 +1030,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="17">
+    <row r="9" spans="1:18" ht="17.399999999999999">
       <c r="A9" s="3">
         <v>21005</v>
       </c>
@@ -1057,7 +1058,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="17">
+    <row r="10" spans="1:18" ht="17.399999999999999">
       <c r="A10" s="3">
         <v>21006</v>
       </c>
@@ -1085,7 +1086,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="17">
+    <row r="11" spans="1:18" ht="17.399999999999999">
       <c r="A11" s="3">
         <v>31001</v>
       </c>
@@ -1113,7 +1114,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="17">
+    <row r="12" spans="1:18" ht="17.399999999999999">
       <c r="A12" s="3">
         <v>31002</v>
       </c>
@@ -1141,7 +1142,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="17">
+    <row r="13" spans="1:18" ht="17.399999999999999">
       <c r="A13" s="3">
         <v>41001</v>
       </c>
@@ -1169,7 +1170,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="17">
+    <row r="14" spans="1:18" ht="17.399999999999999">
       <c r="A14" s="3">
         <v>41002</v>
       </c>
@@ -1197,7 +1198,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="17">
+    <row r="15" spans="1:18" ht="17.399999999999999">
       <c r="A15" s="3">
         <v>41003</v>
       </c>
@@ -1225,7 +1226,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="17">
+    <row r="16" spans="1:18" ht="17.399999999999999">
       <c r="A16" s="4">
         <v>41004</v>
       </c>
@@ -1253,7 +1254,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="17">
+    <row r="17" spans="1:18" ht="17.399999999999999">
       <c r="A17" s="3">
         <v>810010</v>
       </c>
@@ -1281,7 +1282,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="17">
+    <row r="18" spans="1:18" ht="17.399999999999999">
       <c r="A18" s="3">
         <v>810020</v>
       </c>
@@ -1309,7 +1310,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="17">
+    <row r="19" spans="1:18" ht="17.399999999999999">
       <c r="A19" s="3">
         <v>810030</v>
       </c>
@@ -1337,7 +1338,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="17">
+    <row r="20" spans="1:18" ht="17.399999999999999">
       <c r="A20" s="3">
         <v>810040</v>
       </c>
@@ -1365,7 +1366,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="17">
+    <row r="21" spans="1:18" ht="17.399999999999999">
       <c r="A21" s="3">
         <v>810050</v>
       </c>
@@ -1393,7 +1394,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="17">
+    <row r="22" spans="1:18" ht="17.399999999999999">
       <c r="A22" s="3">
         <v>810060</v>
       </c>
@@ -1421,7 +1422,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="17">
+    <row r="23" spans="1:18" ht="17.399999999999999">
       <c r="A23" s="3">
         <v>810070</v>
       </c>
@@ -1449,7 +1450,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="17">
+    <row r="24" spans="1:18" ht="17.399999999999999">
       <c r="A24" s="3">
         <v>810080</v>
       </c>
@@ -1477,7 +1478,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="17">
+    <row r="25" spans="1:18" ht="17.399999999999999">
       <c r="A25" s="3">
         <v>810090</v>
       </c>
@@ -1505,7 +1506,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="17">
+    <row r="26" spans="1:18" ht="17.399999999999999">
       <c r="A26" s="3">
         <v>810100</v>
       </c>
@@ -1533,7 +1534,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="17">
+    <row r="27" spans="1:18" ht="17.399999999999999">
       <c r="A27" s="3">
         <v>810110</v>
       </c>
@@ -1561,7 +1562,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="17">
+    <row r="28" spans="1:18" ht="17.399999999999999">
       <c r="A28" s="3">
         <v>810120</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="17">
+    <row r="29" spans="1:18" ht="17.399999999999999">
       <c r="A29" s="3">
         <v>810130</v>
       </c>
@@ -1617,7 +1618,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="17">
+    <row r="30" spans="1:18" ht="17.399999999999999">
       <c r="A30" s="3">
         <v>810140</v>
       </c>
@@ -1645,7 +1646,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="17">
+    <row r="31" spans="1:18" ht="17.399999999999999">
       <c r="A31" s="3">
         <v>810150</v>
       </c>
@@ -1673,7 +1674,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="17">
+    <row r="32" spans="1:18" ht="17.399999999999999">
       <c r="A32" s="3">
         <v>810160</v>
       </c>
@@ -1701,7 +1702,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="17">
+    <row r="33" spans="1:18" ht="17.399999999999999">
       <c r="A33" s="3">
         <v>810170</v>
       </c>
@@ -1729,7 +1730,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="17">
+    <row r="34" spans="1:18" ht="17.399999999999999">
       <c r="A34" s="3">
         <v>810180</v>
       </c>
@@ -1757,7 +1758,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="17">
+    <row r="35" spans="1:18" ht="17.399999999999999">
       <c r="A35" s="3">
         <v>810190</v>
       </c>
@@ -1785,7 +1786,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="17">
+    <row r="36" spans="1:18" ht="17.399999999999999">
       <c r="A36" s="3">
         <v>810200</v>
       </c>
@@ -1813,7 +1814,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="17">
+    <row r="37" spans="1:18" ht="17.399999999999999">
       <c r="A37" s="3">
         <v>810210</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="17">
+    <row r="38" spans="1:18" ht="17.399999999999999">
       <c r="A38" s="3">
         <v>810220</v>
       </c>
@@ -1869,7 +1870,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="17">
+    <row r="39" spans="1:18" ht="17.399999999999999">
       <c r="A39" s="3">
         <v>810230</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="17">
+    <row r="40" spans="1:18" ht="17.399999999999999">
       <c r="A40" s="3">
         <v>810240</v>
       </c>
@@ -1925,7 +1926,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="17">
+    <row r="41" spans="1:18" ht="17.399999999999999">
       <c r="A41" s="3">
         <v>810250</v>
       </c>
@@ -1953,7 +1954,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="17">
+    <row r="42" spans="1:18" ht="17.399999999999999">
       <c r="A42" s="3">
         <v>810260</v>
       </c>
@@ -1981,7 +1982,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" ht="17">
+    <row r="43" spans="1:18" ht="17.399999999999999">
       <c r="A43" s="5">
         <v>810270</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="1:18" ht="17">
+    <row r="44" spans="1:18" ht="17.399999999999999">
       <c r="A44" s="5">
         <v>810280</v>
       </c>
@@ -2037,7 +2038,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="1:18" ht="17">
+    <row r="45" spans="1:18" ht="17.399999999999999">
       <c r="A45" s="3">
         <v>810290</v>
       </c>
@@ -2065,7 +2066,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" ht="17">
+    <row r="46" spans="1:18" ht="17.399999999999999">
       <c r="A46" s="3">
         <v>810300</v>
       </c>
@@ -2093,7 +2094,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="1:18" ht="17">
+    <row r="47" spans="1:18" ht="17.399999999999999">
       <c r="A47" s="3">
         <v>810310</v>
       </c>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOON JONG WOOK\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62CA458-624C-439E-ACB5-D8368C4BCB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D809B5EA-095C-490E-AC4E-8226FD38C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3732" yWindow="3732" windowWidth="23040" windowHeight="13512" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -269,6 +269,10 @@
   </si>
   <si>
     <t>지옥 아귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,30 +733,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="1"/>
-    <col min="4" max="4" width="13.296875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.69921875" style="1"/>
+    <col min="16" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.399999999999999">
+    <row r="1" spans="1:18" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -808,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17.399999999999999">
+    <row r="2" spans="1:18" ht="16.5">
       <c r="A2" s="3">
         <v>11001</v>
       </c>
@@ -848,7 +852,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="17.399999999999999">
+    <row r="3" spans="1:18" ht="16.5">
       <c r="A3" s="3">
         <v>11002</v>
       </c>
@@ -884,7 +888,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="17.399999999999999">
+    <row r="4" spans="1:18" ht="16.5">
       <c r="A4" s="3">
         <v>11003</v>
       </c>
@@ -918,7 +922,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="17.399999999999999">
+    <row r="5" spans="1:18" ht="16.5">
       <c r="A5" s="3">
         <v>21001</v>
       </c>
@@ -946,7 +950,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="17.399999999999999">
+    <row r="6" spans="1:18" ht="16.5">
       <c r="A6" s="3">
         <v>21002</v>
       </c>
@@ -974,7 +978,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" ht="17.399999999999999">
+    <row r="7" spans="1:18" ht="16.5">
       <c r="A7" s="3">
         <v>21003</v>
       </c>
@@ -1002,7 +1006,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="17.399999999999999">
+    <row r="8" spans="1:18" ht="16.5">
       <c r="A8" s="3">
         <v>21004</v>
       </c>
@@ -1030,7 +1034,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" ht="17.399999999999999">
+    <row r="9" spans="1:18" ht="16.5">
       <c r="A9" s="3">
         <v>21005</v>
       </c>
@@ -1058,7 +1062,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" ht="17.399999999999999">
+    <row r="10" spans="1:18" ht="16.5">
       <c r="A10" s="3">
         <v>21006</v>
       </c>
@@ -1086,7 +1090,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="17.399999999999999">
+    <row r="11" spans="1:18" ht="16.5">
       <c r="A11" s="3">
         <v>31001</v>
       </c>
@@ -1114,7 +1118,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="17.399999999999999">
+    <row r="12" spans="1:18" ht="16.5">
       <c r="A12" s="3">
         <v>31002</v>
       </c>
@@ -1142,7 +1146,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="17.399999999999999">
+    <row r="13" spans="1:18" ht="16.5">
       <c r="A13" s="3">
         <v>41001</v>
       </c>
@@ -1170,7 +1174,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" ht="17.399999999999999">
+    <row r="14" spans="1:18" ht="16.5">
       <c r="A14" s="3">
         <v>41002</v>
       </c>
@@ -1198,7 +1202,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" ht="17.399999999999999">
+    <row r="15" spans="1:18" ht="16.5">
       <c r="A15" s="3">
         <v>41003</v>
       </c>
@@ -1226,7 +1230,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" ht="17.399999999999999">
+    <row r="16" spans="1:18" ht="16.5">
       <c r="A16" s="4">
         <v>41004</v>
       </c>
@@ -1254,7 +1258,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="17.399999999999999">
+    <row r="17" spans="1:18" ht="16.5">
       <c r="A17" s="3">
         <v>810010</v>
       </c>
@@ -1282,7 +1286,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" ht="17.399999999999999">
+    <row r="18" spans="1:18" ht="16.5">
       <c r="A18" s="3">
         <v>810020</v>
       </c>
@@ -1310,7 +1314,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="17.399999999999999">
+    <row r="19" spans="1:18" ht="16.5">
       <c r="A19" s="3">
         <v>810030</v>
       </c>
@@ -1338,7 +1342,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="17.399999999999999">
+    <row r="20" spans="1:18" ht="16.5">
       <c r="A20" s="3">
         <v>810040</v>
       </c>
@@ -1366,7 +1370,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="17.399999999999999">
+    <row r="21" spans="1:18" ht="16.5">
       <c r="A21" s="3">
         <v>810050</v>
       </c>
@@ -1394,7 +1398,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" ht="17.399999999999999">
+    <row r="22" spans="1:18" ht="16.5">
       <c r="A22" s="3">
         <v>810060</v>
       </c>
@@ -1422,7 +1426,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="17.399999999999999">
+    <row r="23" spans="1:18" ht="16.5">
       <c r="A23" s="3">
         <v>810070</v>
       </c>
@@ -1450,7 +1454,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="17.399999999999999">
+    <row r="24" spans="1:18" ht="16.5">
       <c r="A24" s="3">
         <v>810080</v>
       </c>
@@ -1478,7 +1482,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="17.399999999999999">
+    <row r="25" spans="1:18" ht="16.5">
       <c r="A25" s="3">
         <v>810090</v>
       </c>
@@ -1506,7 +1510,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="17.399999999999999">
+    <row r="26" spans="1:18" ht="16.5">
       <c r="A26" s="3">
         <v>810100</v>
       </c>
@@ -1534,7 +1538,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="17.399999999999999">
+    <row r="27" spans="1:18" ht="16.5">
       <c r="A27" s="3">
         <v>810110</v>
       </c>
@@ -1562,7 +1566,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="17.399999999999999">
+    <row r="28" spans="1:18" ht="16.5">
       <c r="A28" s="3">
         <v>810120</v>
       </c>
@@ -1590,7 +1594,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" ht="17.399999999999999">
+    <row r="29" spans="1:18" ht="16.5">
       <c r="A29" s="3">
         <v>810130</v>
       </c>
@@ -1618,7 +1622,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="17.399999999999999">
+    <row r="30" spans="1:18" ht="16.5">
       <c r="A30" s="3">
         <v>810140</v>
       </c>
@@ -1646,7 +1650,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="17.399999999999999">
+    <row r="31" spans="1:18" ht="16.5">
       <c r="A31" s="3">
         <v>810150</v>
       </c>
@@ -1674,18 +1678,18 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="17.399999999999999">
+    <row r="32" spans="1:18" ht="16.5">
       <c r="A32" s="3">
-        <v>810160</v>
+        <v>810151</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="3">
-        <v>8101600</v>
+        <v>8101501</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1702,18 +1706,18 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="17.399999999999999">
+    <row r="33" spans="1:18" ht="16.5">
       <c r="A33" s="3">
-        <v>810170</v>
+        <v>810152</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>8101700</v>
+        <v>8101502</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1730,18 +1734,18 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="17.399999999999999">
+    <row r="34" spans="1:18" ht="16.5">
       <c r="A34" s="3">
-        <v>810180</v>
+        <v>810160</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>8101800</v>
+        <v>8101600</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1758,18 +1762,18 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="17.399999999999999">
+    <row r="35" spans="1:18" ht="16.5">
       <c r="A35" s="3">
-        <v>810190</v>
+        <v>810170</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>8101900</v>
+        <v>8101700</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1786,18 +1790,18 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="17.399999999999999">
+    <row r="36" spans="1:18" ht="16.5">
       <c r="A36" s="3">
-        <v>810200</v>
+        <v>810180</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>8102000</v>
+        <v>8101800</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1814,18 +1818,18 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="17.399999999999999">
+    <row r="37" spans="1:18" ht="16.5">
       <c r="A37" s="3">
-        <v>810210</v>
+        <v>810190</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>8102100</v>
+        <v>8101900</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1842,18 +1846,18 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" ht="17.399999999999999">
+    <row r="38" spans="1:18" ht="16.5">
       <c r="A38" s="3">
-        <v>810220</v>
+        <v>810200</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>8102200</v>
+        <v>8102000</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1870,18 +1874,18 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="17.399999999999999">
+    <row r="39" spans="1:18" ht="16.5">
       <c r="A39" s="3">
-        <v>810230</v>
+        <v>810210</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
-        <v>8102300</v>
+        <v>8102100</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1898,18 +1902,18 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="17.399999999999999">
+    <row r="40" spans="1:18" ht="16.5">
       <c r="A40" s="3">
-        <v>810240</v>
+        <v>810220</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>8102400</v>
+        <v>8102200</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1926,18 +1930,18 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="1:18" ht="17.399999999999999">
+    <row r="41" spans="1:18" ht="16.5">
       <c r="A41" s="3">
-        <v>810250</v>
+        <v>810230</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3">
-        <v>8102500</v>
+        <v>8102300</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1954,18 +1958,18 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" ht="17.399999999999999">
+    <row r="42" spans="1:18" ht="16.5">
       <c r="A42" s="3">
-        <v>810260</v>
+        <v>810240</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3">
-        <v>8102600</v>
+        <v>8102400</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1982,130 +1986,130 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="1:18" ht="17.399999999999999">
-      <c r="A43" s="5">
+    <row r="43" spans="1:18" ht="16.5">
+      <c r="A43" s="3">
+        <v>810250</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="3">
+        <v>8102500</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" ht="16.5">
+      <c r="A44" s="3">
+        <v>810260</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3">
+        <v>8102600</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" ht="16.5">
+      <c r="A45" s="5">
         <v>810270</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="5">
         <v>8102700</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="1:18" ht="17.399999999999999">
-      <c r="A44" s="5">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" ht="16.5">
+      <c r="A46" s="5">
         <v>810280</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="5">
         <v>8102800</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="1:18" ht="17.399999999999999">
-      <c r="A45" s="3">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" ht="16.5">
+      <c r="A47" s="3">
         <v>810290</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C47" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3">
         <v>8102900</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" ht="17.399999999999999">
-      <c r="A46" s="3">
-        <v>810300</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="3">
-        <v>8103000</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" ht="17.399999999999999">
-      <c r="A47" s="3">
-        <v>810310</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="3">
-        <v>8103100</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2122,6 +2126,62 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
+    <row r="48" spans="1:18" ht="16.5">
+      <c r="A48" s="3">
+        <v>810300</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3">
+        <v>8103000</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" ht="16.5">
+      <c r="A49" s="3">
+        <v>810310</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3">
+        <v>8103100</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D809B5EA-095C-490E-AC4E-8226FD38C520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F918D08E-4763-41E7-A353-FB27F25A5A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -200,14 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구토 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈토 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,7 +264,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혈토 소환</t>
+    <t>촌충_자기 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고래회충_자기 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토_만복도 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 발사_소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 발사_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구토 발사_만복도 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사_소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈토 발사_만복도 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,13 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,6 +409,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -733,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31:D33"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -812,451 +837,451 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16.5">
-      <c r="A2" s="3">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A2" s="5">
         <v>11001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
         <v>1001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <v>0.5</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>2004</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <v>1002</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="5">
         <v>1</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="5">
         <v>2003</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" ht="16.5">
-      <c r="A3" s="3">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A3" s="5">
         <v>11002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
         <v>3001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>3002</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
         <v>1003</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="5">
         <v>0.3</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>3003</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.5">
-      <c r="A4" s="3">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A4" s="5">
         <v>11003</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>4001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>4002</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>4003</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>4004</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5">
-      <c r="A5" s="3">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A5" s="5">
         <v>21001</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5">
         <v>90001</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5">
-      <c r="A6" s="3">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A6" s="5">
         <v>21002</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
         <v>90002</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5">
-      <c r="A7" s="3">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A7" s="5">
         <v>21003</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5">
         <v>90003</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5">
-      <c r="A8" s="3">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A8" s="5">
         <v>21004</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5">
         <v>90004</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5">
-      <c r="A9" s="3">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A9" s="5">
         <v>21005</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5">
         <v>90005</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5">
-      <c r="A10" s="3">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A10" s="5">
         <v>21006</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5">
         <v>90006</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5">
-      <c r="A11" s="3">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A11" s="5">
         <v>31001</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5">
         <v>100001</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5">
-      <c r="A12" s="3">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A12" s="5">
         <v>31002</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
         <v>100002</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5">
-      <c r="A13" s="3">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A13" s="5">
         <v>41001</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>100011</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5">
-      <c r="A14" s="3">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A14" s="5">
         <v>41002</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>100012</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5">
-      <c r="A15" s="3">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A15" s="5">
         <v>41003</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>100013</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5">
-      <c r="A16" s="4">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="16.5">
+      <c r="A16" s="5">
         <v>41004</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>100014</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="16.5">
       <c r="A17" s="3">
@@ -1540,16 +1565,16 @@
     </row>
     <row r="27" spans="1:18" ht="16.5">
       <c r="A27" s="3">
-        <v>810110</v>
+        <v>810101</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>8101100</v>
+        <v>8101001</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1568,16 +1593,16 @@
     </row>
     <row r="28" spans="1:18" ht="16.5">
       <c r="A28" s="3">
-        <v>810120</v>
+        <v>810110</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>8101200</v>
+        <v>8101100</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1596,16 +1621,16 @@
     </row>
     <row r="29" spans="1:18" ht="16.5">
       <c r="A29" s="3">
-        <v>810130</v>
+        <v>810111</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>8101300</v>
+        <v>8101101</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1624,16 +1649,16 @@
     </row>
     <row r="30" spans="1:18" ht="16.5">
       <c r="A30" s="3">
-        <v>810140</v>
+        <v>810120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3">
-        <v>8101400</v>
+        <v>8101200</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1652,16 +1677,16 @@
     </row>
     <row r="31" spans="1:18" ht="16.5">
       <c r="A31" s="3">
-        <v>810150</v>
+        <v>810121</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>8101500</v>
+        <v>8101201</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1680,16 +1705,16 @@
     </row>
     <row r="32" spans="1:18" ht="16.5">
       <c r="A32" s="3">
-        <v>810151</v>
+        <v>810130</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="3">
-        <v>8101501</v>
+        <v>8101300</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1708,7 +1733,7 @@
     </row>
     <row r="33" spans="1:18" ht="16.5">
       <c r="A33" s="3">
-        <v>810152</v>
+        <v>810131</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>70</v>
@@ -1717,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>8101502</v>
+        <v>8101301</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1736,16 +1761,16 @@
     </row>
     <row r="34" spans="1:18" ht="16.5">
       <c r="A34" s="3">
-        <v>810160</v>
+        <v>810140</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>8101600</v>
+        <v>8101400</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1764,16 +1789,16 @@
     </row>
     <row r="35" spans="1:18" ht="16.5">
       <c r="A35" s="3">
-        <v>810170</v>
+        <v>810141</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>8101700</v>
+        <v>8101401</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1792,16 +1817,16 @@
     </row>
     <row r="36" spans="1:18" ht="16.5">
       <c r="A36" s="3">
-        <v>810180</v>
+        <v>810142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>8101800</v>
+        <v>8101402</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1820,16 +1845,16 @@
     </row>
     <row r="37" spans="1:18" ht="16.5">
       <c r="A37" s="3">
-        <v>810190</v>
+        <v>810150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>8101900</v>
+        <v>8101500</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1848,16 +1873,16 @@
     </row>
     <row r="38" spans="1:18" ht="16.5">
       <c r="A38" s="3">
-        <v>810200</v>
+        <v>810151</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>8102000</v>
+        <v>8101501</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1876,16 +1901,16 @@
     </row>
     <row r="39" spans="1:18" ht="16.5">
       <c r="A39" s="3">
-        <v>810210</v>
+        <v>810152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
-        <v>8102100</v>
+        <v>8101502</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1904,16 +1929,16 @@
     </row>
     <row r="40" spans="1:18" ht="16.5">
       <c r="A40" s="3">
-        <v>810220</v>
+        <v>810160</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>8102200</v>
+        <v>8101600</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1932,16 +1957,16 @@
     </row>
     <row r="41" spans="1:18" ht="16.5">
       <c r="A41" s="3">
-        <v>810230</v>
+        <v>810170</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3">
-        <v>8102300</v>
+        <v>8101700</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1960,16 +1985,16 @@
     </row>
     <row r="42" spans="1:18" ht="16.5">
       <c r="A42" s="3">
-        <v>810240</v>
+        <v>810180</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3">
-        <v>8102400</v>
+        <v>8101800</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1988,16 +2013,16 @@
     </row>
     <row r="43" spans="1:18" ht="16.5">
       <c r="A43" s="3">
-        <v>810250</v>
+        <v>810190</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3">
-        <v>8102500</v>
+        <v>8101900</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2016,16 +2041,16 @@
     </row>
     <row r="44" spans="1:18" ht="16.5">
       <c r="A44" s="3">
-        <v>810260</v>
+        <v>810200</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>8102600</v>
+        <v>8102000</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2043,73 +2068,73 @@
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="16.5">
-      <c r="A45" s="5">
-        <v>810270</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="5">
-        <v>8102700</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
+      <c r="A45" s="3">
+        <v>810210</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8102100</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="16.5">
-      <c r="A46" s="5">
-        <v>810280</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="5">
-        <v>8102800</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
+      <c r="A46" s="3">
+        <v>810220</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3">
+        <v>8102200</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="16.5">
       <c r="A47" s="3">
-        <v>810290</v>
+        <v>810230</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>8102900</v>
+        <v>8102300</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2128,16 +2153,16 @@
     </row>
     <row r="48" spans="1:18" ht="16.5">
       <c r="A48" s="3">
-        <v>810300</v>
+        <v>810240</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>8103000</v>
+        <v>8102400</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2156,16 +2181,16 @@
     </row>
     <row r="49" spans="1:18" ht="16.5">
       <c r="A49" s="3">
-        <v>810310</v>
+        <v>810250</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>8103100</v>
+        <v>8102500</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2182,6 +2207,174 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
+    <row r="50" spans="1:18" ht="16.5">
+      <c r="A50" s="3">
+        <v>810260</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="3">
+        <v>8102600</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" ht="16.5">
+      <c r="A51" s="4">
+        <v>810270</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="4">
+        <v>8102700</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" ht="16.5">
+      <c r="A52" s="4">
+        <v>810280</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="4">
+        <v>8102800</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" ht="16.5">
+      <c r="A53" s="3">
+        <v>810290</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="3">
+        <v>8102900</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" ht="16.5">
+      <c r="A54" s="3">
+        <v>810300</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="3">
+        <v>8103000</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" ht="16.5">
+      <c r="A55" s="3">
+        <v>810310</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8103100</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F918D08E-4763-41E7-A353-FB27F25A5A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BBB9C-2859-4CB6-ACE8-3F3E24EF9EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빨아 먹기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포만감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,22 @@
   </si>
   <si>
     <t>혈토 발사_만복도 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기_버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨아 먹기_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비프 웰링턴_소화불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸와그라_아군 공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,11 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1568,7 +1580,7 @@
         <v>810101</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
@@ -1624,7 +1636,7 @@
         <v>810111</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
@@ -1736,7 +1748,7 @@
         <v>810131</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
@@ -1764,7 +1776,7 @@
         <v>810140</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
@@ -1792,7 +1804,7 @@
         <v>810141</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
@@ -1820,7 +1832,7 @@
         <v>810142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
@@ -1848,7 +1860,7 @@
         <v>810150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
@@ -1876,7 +1888,7 @@
         <v>810151</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
@@ -1904,7 +1916,7 @@
         <v>810152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
@@ -2016,7 +2028,7 @@
         <v>810190</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
@@ -2041,16 +2053,16 @@
     </row>
     <row r="44" spans="1:18" ht="16.5">
       <c r="A44" s="3">
-        <v>810200</v>
+        <v>810191</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>8102000</v>
+        <v>8101901</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2069,16 +2081,16 @@
     </row>
     <row r="45" spans="1:18" ht="16.5">
       <c r="A45" s="3">
-        <v>810210</v>
+        <v>810200</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="3">
-        <v>8102100</v>
+        <v>8102000</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2097,16 +2109,16 @@
     </row>
     <row r="46" spans="1:18" ht="16.5">
       <c r="A46" s="3">
-        <v>810220</v>
+        <v>810210</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="3">
-        <v>8102200</v>
+        <v>8102100</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2125,16 +2137,16 @@
     </row>
     <row r="47" spans="1:18" ht="16.5">
       <c r="A47" s="3">
-        <v>810230</v>
+        <v>810220</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>8102300</v>
+        <v>8102200</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2153,16 +2165,16 @@
     </row>
     <row r="48" spans="1:18" ht="16.5">
       <c r="A48" s="3">
-        <v>810240</v>
+        <v>810230</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>8102400</v>
+        <v>8102300</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2181,16 +2193,16 @@
     </row>
     <row r="49" spans="1:18" ht="16.5">
       <c r="A49" s="3">
-        <v>810250</v>
+        <v>810240</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>8102500</v>
+        <v>8102400</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2209,16 +2221,16 @@
     </row>
     <row r="50" spans="1:18" ht="16.5">
       <c r="A50" s="3">
-        <v>810260</v>
+        <v>810241</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="3">
-        <v>8102600</v>
+        <v>8102400</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2236,73 +2248,73 @@
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="16.5">
-      <c r="A51" s="4">
-        <v>810270</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="4">
-        <v>8102700</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
+      <c r="A51" s="3">
+        <v>810250</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="3">
+        <v>8102500</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="16.5">
-      <c r="A52" s="4">
-        <v>810280</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="4">
-        <v>8102800</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
+      <c r="A52" s="3">
+        <v>810251</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="3">
+        <v>8102501</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="16.5">
       <c r="A53" s="3">
-        <v>810290</v>
+        <v>810260</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="3">
-        <v>8102900</v>
+        <v>8102600</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2320,60 +2332,144 @@
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="16.5">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
+        <v>810270</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="4">
+        <v>8102700</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" ht="16.5">
+      <c r="A55" s="4">
+        <v>810280</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="4">
+        <v>8102800</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+    </row>
+    <row r="56" spans="1:18" ht="16.5">
+      <c r="A56" s="3">
+        <v>810290</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="3">
+        <v>8102900</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" ht="16.5">
+      <c r="A57" s="3">
         <v>810300</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="3">
+        <v>8103000</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" ht="16.5">
+      <c r="A58" s="3">
+        <v>810310</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="3">
-        <v>8103000</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="16.5">
-      <c r="A55" s="3">
-        <v>810310</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="3">
         <v>8103100</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BBB9C-2859-4CB6-ACE8-3F3E24EF9EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA2A2C-BD15-4669-9D2B-D71367337C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>푸와그라_아군 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 지휘관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 자폭병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임프 자폭병 범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,11 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2471,6 +2483,90 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
+    <row r="59" spans="1:18" ht="16.5">
+      <c r="A59" s="3">
+        <v>810320</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="3">
+        <v>8103200</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5">
+      <c r="A60" s="3">
+        <v>810330</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="3">
+        <v>8103300</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" ht="16.5">
+      <c r="A61" s="3">
+        <v>810331</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="3">
+        <v>8103301</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo2\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA2A2C-BD15-4669-9D2B-D71367337C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A1E71-3DEB-4183-95D6-B2455FB917E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -321,6 +321,14 @@
   </si>
   <si>
     <t>임프 자폭병 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼내오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺼내오기_만복도 소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,11 +790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2567,6 +2575,62 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
+    <row r="62" spans="1:18" ht="16.5">
+      <c r="A62" s="3">
+        <v>810340</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="3">
+        <v>8103400</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" ht="16.5">
+      <c r="A63" s="3">
+        <v>810341</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="3">
+        <v>8103401</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A1E71-3DEB-4183-95D6-B2455FB917E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F79A49-219B-405A-AF14-6F3A355370B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -329,6 +329,14 @@
   </si>
   <si>
     <t>꺼내오기_만복도 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화제_체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소화제_저주카드 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,11 +798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2631,6 +2639,62 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
+    <row r="64" spans="1:18" ht="16.5">
+      <c r="A64" s="3">
+        <v>810350</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="3">
+        <v>8103500</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" ht="16.5">
+      <c r="A65" s="3">
+        <v>810351</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="3">
+        <v>8103501</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F79A49-219B-405A-AF14-6F3A355370B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56DBC8-B98A-4DE6-A212-A5283F1B99E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -337,6 +337,14 @@
   </si>
   <si>
     <t>소화제_저주카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만드라고라_만복도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만드라고라_마나 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,11 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2695,6 +2703,62 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
+    <row r="66" spans="1:18" ht="16.5">
+      <c r="A66" s="3">
+        <v>810370</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="3">
+        <v>8103700</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" ht="16.5">
+      <c r="A67" s="3">
+        <v>810371</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="3">
+        <v>8103701</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56DBC8-B98A-4DE6-A212-A5283F1B99E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269F020-3ECF-4D68-BD12-DF0D00D2BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -345,6 +345,14 @@
   </si>
   <si>
     <t>만드라고라_마나 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켈베</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주시하는 자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2759,6 +2767,62 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
     </row>
+    <row r="68" spans="1:18" ht="16.5">
+      <c r="A68" s="3">
+        <v>810380</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="3">
+        <v>8103800</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" ht="16.5">
+      <c r="A69" s="3">
+        <v>810390</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8103900</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269F020-3ECF-4D68-BD12-DF0D00D2BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EC11B-82E8-4FC6-9682-B3054B9E37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -354,6 +354,18 @@
   <si>
     <t>주시하는 자</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남동생12</t>
+  </si>
+  <si>
+    <t>언니31</t>
+  </si>
+  <si>
+    <t>오빠43</t>
+  </si>
+  <si>
+    <t>언니666</t>
   </si>
 </sst>
 </file>
@@ -814,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2823,6 +2835,118 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
     </row>
+    <row r="70" spans="1:18" ht="16.5">
+      <c r="A70" s="3">
+        <v>810400</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="3">
+        <v>8104000</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" ht="16.5">
+      <c r="A71" s="3">
+        <v>810410</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="3">
+        <v>8104100</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" ht="16.5">
+      <c r="A72" s="3">
+        <v>810420</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="3">
+        <v>8104200</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" ht="16.5">
+      <c r="A73" s="3">
+        <v>810430</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="3">
+        <v>8104300</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EC11B-82E8-4FC6-9682-B3054B9E37FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC31CC90-FD13-4679-A4ED-851ECC02B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -366,6 +366,10 @@
   </si>
   <si>
     <t>언니666</t>
+  </si>
+  <si>
+    <t>삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -826,11 +830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2947,6 +2951,34 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
     </row>
+    <row r="74" spans="1:18" ht="16.5">
+      <c r="A74" s="3">
+        <v>810440</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="3">
+        <v>8104400</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC31CC90-FD13-4679-A4ED-851ECC02B0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908DCAB1-2ECA-483C-9881-68924C0A57F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -369,6 +380,18 @@
   </si>
   <si>
     <t>삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마의 트름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 성수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오염된 성수_보호막</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2979,6 +3002,92 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
     </row>
+    <row r="75" spans="1:18" ht="16.5">
+      <c r="A75" s="3">
+        <v>810450</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f>A75&amp;"0"</f>
+        <v>8104500</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" ht="16.5">
+      <c r="A76" s="3">
+        <v>810460</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f>A76&amp;"0"</f>
+        <v>8104600</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" ht="16.5">
+      <c r="A77" s="3">
+        <v>810461</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="3">
+        <v>8104601</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908DCAB1-2ECA-483C-9881-68924C0A57F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957C7AF-38AC-4229-9266-7E18F679C4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -392,6 +392,23 @@
   </si>
   <si>
     <t>오염된 성수_보호막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유황 고구마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드카드 선택 소환</t>
+  </si>
+  <si>
+    <t>뽑을카드 선택 소환</t>
+  </si>
+  <si>
+    <t>무덤카드 선택 소환</t>
+  </si>
+  <si>
+    <t>카드 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,11 +870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3088,6 +3105,146 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
     </row>
+    <row r="78" spans="1:18" ht="16.5">
+      <c r="A78" s="3">
+        <v>810470</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="3">
+        <v>8104700</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+    </row>
+    <row r="79" spans="1:18" ht="16.5">
+      <c r="A79" s="3">
+        <v>999910</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="3">
+        <v>9999100</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" ht="16.5">
+      <c r="A80" s="3">
+        <v>999920</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9999200</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" ht="16.5">
+      <c r="A81" s="3">
+        <v>999930</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="3">
+        <v>9999300</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" ht="16.5">
+      <c r="A82" s="3">
+        <v>999940</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="3">
+        <v>9999400</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957C7AF-38AC-4229-9266-7E18F679C4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16476C-4285-49DD-95AE-2FEBA2B3B751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -409,6 +409,14 @@
   </si>
   <si>
     <t>카드 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 한방_후열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직한 한방_첫열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,6 +536,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -870,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1397,16 +1414,16 @@
     </row>
     <row r="17" spans="1:18" ht="16.5">
       <c r="A17" s="3">
-        <v>810010</v>
+        <v>999910</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="3">
-        <v>8100100</v>
+        <v>9999100</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1425,16 +1442,16 @@
     </row>
     <row r="18" spans="1:18" ht="16.5">
       <c r="A18" s="3">
-        <v>810020</v>
+        <v>999920</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="3">
-        <v>8100200</v>
+        <v>9999200</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1453,16 +1470,16 @@
     </row>
     <row r="19" spans="1:18" ht="16.5">
       <c r="A19" s="3">
-        <v>810030</v>
+        <v>999930</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="3">
-        <v>8100300</v>
+        <v>9999300</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1481,16 +1498,16 @@
     </row>
     <row r="20" spans="1:18" ht="16.5">
       <c r="A20" s="3">
-        <v>810040</v>
+        <v>999940</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="3">
-        <v>8100400</v>
+        <v>9999400</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1509,16 +1526,16 @@
     </row>
     <row r="21" spans="1:18" ht="16.5">
       <c r="A21" s="3">
-        <v>810050</v>
+        <v>810010</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="3">
-        <v>8100500</v>
+        <v>8100100</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1537,16 +1554,16 @@
     </row>
     <row r="22" spans="1:18" ht="16.5">
       <c r="A22" s="3">
-        <v>810060</v>
+        <v>810020</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="3">
-        <v>8100600</v>
+        <v>8100200</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1565,16 +1582,16 @@
     </row>
     <row r="23" spans="1:18" ht="16.5">
       <c r="A23" s="3">
-        <v>810070</v>
+        <v>810030</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="3">
-        <v>8100700</v>
+        <v>8100300</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1593,16 +1610,16 @@
     </row>
     <row r="24" spans="1:18" ht="16.5">
       <c r="A24" s="3">
-        <v>810080</v>
+        <v>810040</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>8100800</v>
+        <v>8100400</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1621,16 +1638,16 @@
     </row>
     <row r="25" spans="1:18" ht="16.5">
       <c r="A25" s="3">
-        <v>810090</v>
+        <v>810050</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>8100900</v>
+        <v>8100500</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1649,16 +1666,16 @@
     </row>
     <row r="26" spans="1:18" ht="16.5">
       <c r="A26" s="3">
-        <v>810100</v>
+        <v>810060</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>8101000</v>
+        <v>8100600</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1677,16 +1694,16 @@
     </row>
     <row r="27" spans="1:18" ht="16.5">
       <c r="A27" s="3">
-        <v>810101</v>
+        <v>810070</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>8101001</v>
+        <v>8100700</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1705,16 +1722,16 @@
     </row>
     <row r="28" spans="1:18" ht="16.5">
       <c r="A28" s="3">
-        <v>810110</v>
+        <v>810080</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>8101100</v>
+        <v>8100800</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1733,16 +1750,16 @@
     </row>
     <row r="29" spans="1:18" ht="16.5">
       <c r="A29" s="3">
-        <v>810111</v>
+        <v>810090</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>8101101</v>
+        <v>8100900</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1761,16 +1778,16 @@
     </row>
     <row r="30" spans="1:18" ht="16.5">
       <c r="A30" s="3">
-        <v>810120</v>
+        <v>810100</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3">
-        <v>8101200</v>
+        <v>8101000</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1789,16 +1806,16 @@
     </row>
     <row r="31" spans="1:18" ht="16.5">
       <c r="A31" s="3">
-        <v>810121</v>
+        <v>810101</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>8101201</v>
+        <v>8101001</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1817,16 +1834,16 @@
     </row>
     <row r="32" spans="1:18" ht="16.5">
       <c r="A32" s="3">
-        <v>810130</v>
+        <v>810110</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="3">
-        <v>8101300</v>
+        <v>8101100</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1845,16 +1862,16 @@
     </row>
     <row r="33" spans="1:18" ht="16.5">
       <c r="A33" s="3">
-        <v>810131</v>
+        <v>810111</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>8101301</v>
+        <v>8101101</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1873,16 +1890,16 @@
     </row>
     <row r="34" spans="1:18" ht="16.5">
       <c r="A34" s="3">
-        <v>810140</v>
+        <v>810120</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>8101400</v>
+        <v>8101200</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1901,16 +1918,16 @@
     </row>
     <row r="35" spans="1:18" ht="16.5">
       <c r="A35" s="3">
-        <v>810141</v>
+        <v>810121</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>8101401</v>
+        <v>8101201</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1929,16 +1946,16 @@
     </row>
     <row r="36" spans="1:18" ht="16.5">
       <c r="A36" s="3">
-        <v>810142</v>
+        <v>810130</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>8101402</v>
+        <v>8101300</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1957,16 +1974,16 @@
     </row>
     <row r="37" spans="1:18" ht="16.5">
       <c r="A37" s="3">
-        <v>810150</v>
+        <v>810131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>8101500</v>
+        <v>8101301</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1985,16 +2002,16 @@
     </row>
     <row r="38" spans="1:18" ht="16.5">
       <c r="A38" s="3">
-        <v>810151</v>
+        <v>810140</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>8101501</v>
+        <v>8101400</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2013,16 +2030,16 @@
     </row>
     <row r="39" spans="1:18" ht="16.5">
       <c r="A39" s="3">
-        <v>810152</v>
+        <v>810141</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
-        <v>8101502</v>
+        <v>8101401</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2041,16 +2058,16 @@
     </row>
     <row r="40" spans="1:18" ht="16.5">
       <c r="A40" s="3">
-        <v>810160</v>
+        <v>810142</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>8101600</v>
+        <v>8101402</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2069,16 +2086,16 @@
     </row>
     <row r="41" spans="1:18" ht="16.5">
       <c r="A41" s="3">
-        <v>810170</v>
+        <v>810150</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3">
-        <v>8101700</v>
+        <v>8101500</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2097,16 +2114,16 @@
     </row>
     <row r="42" spans="1:18" ht="16.5">
       <c r="A42" s="3">
-        <v>810180</v>
+        <v>810151</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3">
-        <v>8101800</v>
+        <v>8101501</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2125,16 +2142,16 @@
     </row>
     <row r="43" spans="1:18" ht="16.5">
       <c r="A43" s="3">
-        <v>810190</v>
+        <v>810152</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3">
-        <v>8101900</v>
+        <v>8101502</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2153,16 +2170,16 @@
     </row>
     <row r="44" spans="1:18" ht="16.5">
       <c r="A44" s="3">
-        <v>810191</v>
+        <v>810160</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>8101901</v>
+        <v>8101600</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2181,16 +2198,16 @@
     </row>
     <row r="45" spans="1:18" ht="16.5">
       <c r="A45" s="3">
-        <v>810200</v>
+        <v>810170</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="3">
-        <v>8102000</v>
+        <v>8101700</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2209,16 +2226,16 @@
     </row>
     <row r="46" spans="1:18" ht="16.5">
       <c r="A46" s="3">
-        <v>810210</v>
+        <v>810180</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="3">
-        <v>8102100</v>
+        <v>8101800</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2237,16 +2254,16 @@
     </row>
     <row r="47" spans="1:18" ht="16.5">
       <c r="A47" s="3">
-        <v>810220</v>
+        <v>810190</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>8102200</v>
+        <v>8101900</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2265,16 +2282,16 @@
     </row>
     <row r="48" spans="1:18" ht="16.5">
       <c r="A48" s="3">
-        <v>810230</v>
+        <v>810191</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>8102300</v>
+        <v>8101901</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2293,16 +2310,16 @@
     </row>
     <row r="49" spans="1:18" ht="16.5">
       <c r="A49" s="3">
-        <v>810240</v>
+        <v>810200</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>8102400</v>
+        <v>8102000</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2321,16 +2338,16 @@
     </row>
     <row r="50" spans="1:18" ht="16.5">
       <c r="A50" s="3">
-        <v>810241</v>
+        <v>810210</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="3">
-        <v>8102400</v>
+        <v>8102100</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2349,16 +2366,16 @@
     </row>
     <row r="51" spans="1:18" ht="16.5">
       <c r="A51" s="3">
-        <v>810250</v>
+        <v>810220</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="3">
-        <v>8102500</v>
+        <v>8102200</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2377,16 +2394,16 @@
     </row>
     <row r="52" spans="1:18" ht="16.5">
       <c r="A52" s="3">
-        <v>810251</v>
+        <v>810230</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="3">
-        <v>8102501</v>
+        <v>8102300</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2405,16 +2422,16 @@
     </row>
     <row r="53" spans="1:18" ht="16.5">
       <c r="A53" s="3">
-        <v>810260</v>
+        <v>810240</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="3">
-        <v>8102600</v>
+        <v>8102400</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2432,73 +2449,73 @@
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="16.5">
-      <c r="A54" s="4">
-        <v>810270</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="4">
-        <v>8102700</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="A54" s="3">
+        <v>810241</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="3">
+        <v>8102400</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="16.5">
-      <c r="A55" s="4">
-        <v>810280</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="4">
-        <v>8102800</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
+      <c r="A55" s="3">
+        <v>810250</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8102500</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="16.5">
       <c r="A56" s="3">
-        <v>810290</v>
+        <v>810251</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="3">
-        <v>8102900</v>
+        <v>8102501</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2517,16 +2534,16 @@
     </row>
     <row r="57" spans="1:18" ht="16.5">
       <c r="A57" s="3">
-        <v>810300</v>
+        <v>810260</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="3">
-        <v>8103000</v>
+        <v>8102600</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2544,73 +2561,73 @@
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="16.5">
-      <c r="A58" s="3">
-        <v>810310</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="3">
-        <v>8103100</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+      <c r="A58" s="4">
+        <v>810270</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="4">
+        <v>8102700</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" ht="16.5">
-      <c r="A59" s="3">
-        <v>810320</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="3">
-        <v>8103200</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
+      <c r="A59" s="4">
+        <v>810280</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="4">
+        <v>8102800</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" ht="16.5">
       <c r="A60" s="3">
-        <v>810330</v>
+        <v>810290</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="3">
-        <v>8103300</v>
+        <v>8102900</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2629,16 +2646,16 @@
     </row>
     <row r="61" spans="1:18" ht="16.5">
       <c r="A61" s="3">
-        <v>810331</v>
+        <v>810300</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="3">
-        <v>8103301</v>
+        <v>8103000</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2657,16 +2674,16 @@
     </row>
     <row r="62" spans="1:18" ht="16.5">
       <c r="A62" s="3">
-        <v>810340</v>
+        <v>810310</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="3">
-        <v>8103400</v>
+        <v>8103100</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2685,16 +2702,16 @@
     </row>
     <row r="63" spans="1:18" ht="16.5">
       <c r="A63" s="3">
-        <v>810341</v>
+        <v>810320</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="3">
-        <v>8103401</v>
+        <v>8103200</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2713,16 +2730,16 @@
     </row>
     <row r="64" spans="1:18" ht="16.5">
       <c r="A64" s="3">
-        <v>810350</v>
+        <v>810330</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="3">
-        <v>8103500</v>
+        <v>8103300</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2741,16 +2758,16 @@
     </row>
     <row r="65" spans="1:18" ht="16.5">
       <c r="A65" s="3">
-        <v>810351</v>
+        <v>810331</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="3">
-        <v>8103501</v>
+        <v>8103301</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2769,16 +2786,16 @@
     </row>
     <row r="66" spans="1:18" ht="16.5">
       <c r="A66" s="3">
-        <v>810370</v>
+        <v>810340</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="3">
-        <v>8103700</v>
+        <v>8103400</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2797,16 +2814,16 @@
     </row>
     <row r="67" spans="1:18" ht="16.5">
       <c r="A67" s="3">
-        <v>810371</v>
+        <v>810341</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="3">
-        <v>8103701</v>
+        <v>8103401</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2825,16 +2842,16 @@
     </row>
     <row r="68" spans="1:18" ht="16.5">
       <c r="A68" s="3">
-        <v>810380</v>
+        <v>810350</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="3">
-        <v>8103800</v>
+        <v>8103500</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2853,16 +2870,16 @@
     </row>
     <row r="69" spans="1:18" ht="16.5">
       <c r="A69" s="3">
-        <v>810390</v>
+        <v>810351</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="3">
-        <v>8103900</v>
+        <v>8103501</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2881,16 +2898,16 @@
     </row>
     <row r="70" spans="1:18" ht="16.5">
       <c r="A70" s="3">
-        <v>810400</v>
+        <v>810370</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="3">
-        <v>8104000</v>
+        <v>8103700</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2909,16 +2926,16 @@
     </row>
     <row r="71" spans="1:18" ht="16.5">
       <c r="A71" s="3">
-        <v>810410</v>
+        <v>810371</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="3">
-        <v>8104100</v>
+        <v>8103701</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2937,16 +2954,16 @@
     </row>
     <row r="72" spans="1:18" ht="16.5">
       <c r="A72" s="3">
-        <v>810420</v>
+        <v>810380</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="3">
-        <v>8104200</v>
+        <v>8103800</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -2965,16 +2982,16 @@
     </row>
     <row r="73" spans="1:18" ht="16.5">
       <c r="A73" s="3">
-        <v>810430</v>
+        <v>810390</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="3">
-        <v>8104300</v>
+        <v>8103900</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -2993,16 +3010,16 @@
     </row>
     <row r="74" spans="1:18" ht="16.5">
       <c r="A74" s="3">
-        <v>810440</v>
+        <v>810400</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="3">
-        <v>8104400</v>
+        <v>8104000</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3021,17 +3038,16 @@
     </row>
     <row r="75" spans="1:18" ht="16.5">
       <c r="A75" s="3">
-        <v>810450</v>
+        <v>810410</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="3" t="str">
-        <f>A75&amp;"0"</f>
-        <v>8104500</v>
+      <c r="D75" s="3">
+        <v>8104100</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3050,17 +3066,16 @@
     </row>
     <row r="76" spans="1:18" ht="16.5">
       <c r="A76" s="3">
-        <v>810460</v>
+        <v>810420</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="3" t="str">
-        <f>A76&amp;"0"</f>
-        <v>8104600</v>
+      <c r="D76" s="3">
+        <v>8104200</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3079,16 +3094,16 @@
     </row>
     <row r="77" spans="1:18" ht="16.5">
       <c r="A77" s="3">
-        <v>810461</v>
+        <v>810430</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="3">
-        <v>8104601</v>
+        <v>8104300</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3107,16 +3122,16 @@
     </row>
     <row r="78" spans="1:18" ht="16.5">
       <c r="A78" s="3">
-        <v>810470</v>
+        <v>810440</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="3">
-        <v>8104700</v>
+        <v>8104400</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -3135,16 +3150,17 @@
     </row>
     <row r="79" spans="1:18" ht="16.5">
       <c r="A79" s="3">
-        <v>999910</v>
+        <v>810450</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="3">
-        <v>9999100</v>
+      <c r="D79" s="3" t="str">
+        <f>A79&amp;"0"</f>
+        <v>8104500</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3163,16 +3179,17 @@
     </row>
     <row r="80" spans="1:18" ht="16.5">
       <c r="A80" s="3">
-        <v>999920</v>
+        <v>810460</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="3">
-        <v>9999200</v>
+      <c r="D80" s="3" t="str">
+        <f>A80&amp;"0"</f>
+        <v>8104600</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3191,16 +3208,16 @@
     </row>
     <row r="81" spans="1:18" ht="16.5">
       <c r="A81" s="3">
-        <v>999930</v>
+        <v>810461</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="3">
-        <v>9999300</v>
+        <v>8104601</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3219,16 +3236,16 @@
     </row>
     <row r="82" spans="1:18" ht="16.5">
       <c r="A82" s="3">
-        <v>999940</v>
+        <v>810470</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="3">
-        <v>9999400</v>
+        <v>8104700</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -3245,6 +3262,62 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
+    <row r="83" spans="1:18" ht="16.5">
+      <c r="A83" s="3">
+        <v>810480</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="7">
+        <v>8104800</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18" ht="16.5">
+      <c r="A84" s="3">
+        <v>810481</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="7">
+        <v>8104801</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16476C-4285-49DD-95AE-2FEBA2B3B751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF68CD9-1C69-487F-91E6-A082B31BEEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -417,6 +417,14 @@
   </si>
   <si>
     <t>묵직한 한방_첫열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 지속 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,6 +553,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -887,11 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1524,74 +1542,74 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5">
-      <c r="A21" s="3">
-        <v>810010</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3">
-        <v>8100100</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5">
-      <c r="A22" s="3">
-        <v>810020</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8100200</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+    <row r="21" spans="1:18" s="9" customFormat="1" ht="16.5">
+      <c r="A21" s="8">
+        <v>999950</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8">
+        <v>9999500</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" s="9" customFormat="1" ht="16.5">
+      <c r="A22" s="8">
+        <v>999960</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="8">
+        <v>9999600</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" ht="16.5">
       <c r="A23" s="3">
-        <v>810030</v>
+        <v>810010</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="3">
-        <v>8100300</v>
+        <v>8100100</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1610,16 +1628,16 @@
     </row>
     <row r="24" spans="1:18" ht="16.5">
       <c r="A24" s="3">
-        <v>810040</v>
+        <v>810020</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>8100400</v>
+        <v>8100200</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1638,16 +1656,16 @@
     </row>
     <row r="25" spans="1:18" ht="16.5">
       <c r="A25" s="3">
-        <v>810050</v>
+        <v>810030</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>8100500</v>
+        <v>8100300</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1666,16 +1684,16 @@
     </row>
     <row r="26" spans="1:18" ht="16.5">
       <c r="A26" s="3">
-        <v>810060</v>
+        <v>810040</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>8100600</v>
+        <v>8100400</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1694,16 +1712,16 @@
     </row>
     <row r="27" spans="1:18" ht="16.5">
       <c r="A27" s="3">
-        <v>810070</v>
+        <v>810050</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>8100700</v>
+        <v>8100500</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1722,16 +1740,16 @@
     </row>
     <row r="28" spans="1:18" ht="16.5">
       <c r="A28" s="3">
-        <v>810080</v>
+        <v>810060</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>8100800</v>
+        <v>8100600</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1750,16 +1768,16 @@
     </row>
     <row r="29" spans="1:18" ht="16.5">
       <c r="A29" s="3">
-        <v>810090</v>
+        <v>810070</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>8100900</v>
+        <v>8100700</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1778,16 +1796,16 @@
     </row>
     <row r="30" spans="1:18" ht="16.5">
       <c r="A30" s="3">
-        <v>810100</v>
+        <v>810080</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3">
-        <v>8101000</v>
+        <v>8100800</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1806,16 +1824,16 @@
     </row>
     <row r="31" spans="1:18" ht="16.5">
       <c r="A31" s="3">
-        <v>810101</v>
+        <v>810090</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>8101001</v>
+        <v>8100900</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1834,16 +1852,16 @@
     </row>
     <row r="32" spans="1:18" ht="16.5">
       <c r="A32" s="3">
-        <v>810110</v>
+        <v>810100</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="3">
-        <v>8101100</v>
+        <v>8101000</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1862,16 +1880,16 @@
     </row>
     <row r="33" spans="1:18" ht="16.5">
       <c r="A33" s="3">
-        <v>810111</v>
+        <v>810101</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>8101101</v>
+        <v>8101001</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1890,16 +1908,16 @@
     </row>
     <row r="34" spans="1:18" ht="16.5">
       <c r="A34" s="3">
-        <v>810120</v>
+        <v>810110</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>8101200</v>
+        <v>8101100</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1918,16 +1936,16 @@
     </row>
     <row r="35" spans="1:18" ht="16.5">
       <c r="A35" s="3">
-        <v>810121</v>
+        <v>810111</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>8101201</v>
+        <v>8101101</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1946,16 +1964,16 @@
     </row>
     <row r="36" spans="1:18" ht="16.5">
       <c r="A36" s="3">
-        <v>810130</v>
+        <v>810120</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>8101300</v>
+        <v>8101200</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1974,16 +1992,16 @@
     </row>
     <row r="37" spans="1:18" ht="16.5">
       <c r="A37" s="3">
-        <v>810131</v>
+        <v>810121</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>8101301</v>
+        <v>8101201</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2002,16 +2020,16 @@
     </row>
     <row r="38" spans="1:18" ht="16.5">
       <c r="A38" s="3">
-        <v>810140</v>
+        <v>810130</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>8101400</v>
+        <v>8101300</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2030,16 +2048,16 @@
     </row>
     <row r="39" spans="1:18" ht="16.5">
       <c r="A39" s="3">
-        <v>810141</v>
+        <v>810131</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
-        <v>8101401</v>
+        <v>8101301</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2058,16 +2076,16 @@
     </row>
     <row r="40" spans="1:18" ht="16.5">
       <c r="A40" s="3">
-        <v>810142</v>
+        <v>810140</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>8101402</v>
+        <v>8101400</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2086,16 +2104,16 @@
     </row>
     <row r="41" spans="1:18" ht="16.5">
       <c r="A41" s="3">
-        <v>810150</v>
+        <v>810141</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3">
-        <v>8101500</v>
+        <v>8101401</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2114,16 +2132,16 @@
     </row>
     <row r="42" spans="1:18" ht="16.5">
       <c r="A42" s="3">
-        <v>810151</v>
+        <v>810142</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3">
-        <v>8101501</v>
+        <v>8101402</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2142,16 +2160,16 @@
     </row>
     <row r="43" spans="1:18" ht="16.5">
       <c r="A43" s="3">
-        <v>810152</v>
+        <v>810150</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3">
-        <v>8101502</v>
+        <v>8101500</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2170,16 +2188,16 @@
     </row>
     <row r="44" spans="1:18" ht="16.5">
       <c r="A44" s="3">
-        <v>810160</v>
+        <v>810151</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>8101600</v>
+        <v>8101501</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2198,16 +2216,16 @@
     </row>
     <row r="45" spans="1:18" ht="16.5">
       <c r="A45" s="3">
-        <v>810170</v>
+        <v>810152</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="3">
-        <v>8101700</v>
+        <v>8101502</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2226,16 +2244,16 @@
     </row>
     <row r="46" spans="1:18" ht="16.5">
       <c r="A46" s="3">
-        <v>810180</v>
+        <v>810160</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="3">
-        <v>8101800</v>
+        <v>8101600</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2254,16 +2272,16 @@
     </row>
     <row r="47" spans="1:18" ht="16.5">
       <c r="A47" s="3">
-        <v>810190</v>
+        <v>810170</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>8101900</v>
+        <v>8101700</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2282,16 +2300,16 @@
     </row>
     <row r="48" spans="1:18" ht="16.5">
       <c r="A48" s="3">
-        <v>810191</v>
+        <v>810180</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>8101901</v>
+        <v>8101800</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2310,16 +2328,16 @@
     </row>
     <row r="49" spans="1:18" ht="16.5">
       <c r="A49" s="3">
-        <v>810200</v>
+        <v>810190</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>8102000</v>
+        <v>8101900</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2338,16 +2356,16 @@
     </row>
     <row r="50" spans="1:18" ht="16.5">
       <c r="A50" s="3">
-        <v>810210</v>
+        <v>810191</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="3">
-        <v>8102100</v>
+        <v>8101901</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2366,16 +2384,16 @@
     </row>
     <row r="51" spans="1:18" ht="16.5">
       <c r="A51" s="3">
-        <v>810220</v>
+        <v>810200</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="3">
-        <v>8102200</v>
+        <v>8102000</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2394,16 +2412,16 @@
     </row>
     <row r="52" spans="1:18" ht="16.5">
       <c r="A52" s="3">
-        <v>810230</v>
+        <v>810210</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="3">
-        <v>8102300</v>
+        <v>8102100</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2422,16 +2440,16 @@
     </row>
     <row r="53" spans="1:18" ht="16.5">
       <c r="A53" s="3">
-        <v>810240</v>
+        <v>810220</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="3">
-        <v>8102400</v>
+        <v>8102200</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2450,16 +2468,16 @@
     </row>
     <row r="54" spans="1:18" ht="16.5">
       <c r="A54" s="3">
-        <v>810241</v>
+        <v>810230</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="3">
-        <v>8102400</v>
+        <v>8102300</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2478,16 +2496,16 @@
     </row>
     <row r="55" spans="1:18" ht="16.5">
       <c r="A55" s="3">
-        <v>810250</v>
+        <v>810240</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="3">
-        <v>8102500</v>
+        <v>8102400</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2506,16 +2524,16 @@
     </row>
     <row r="56" spans="1:18" ht="16.5">
       <c r="A56" s="3">
-        <v>810251</v>
+        <v>810241</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="3">
-        <v>8102501</v>
+        <v>8102400</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2534,16 +2552,16 @@
     </row>
     <row r="57" spans="1:18" ht="16.5">
       <c r="A57" s="3">
-        <v>810260</v>
+        <v>810250</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="3">
-        <v>8102600</v>
+        <v>8102500</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2561,129 +2579,129 @@
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="16.5">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
+        <v>810251</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="3">
+        <v>8102501</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" ht="16.5">
+      <c r="A59" s="3">
+        <v>810260</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="3">
+        <v>8102600</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5">
+      <c r="A60" s="4">
         <v>810270</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="C60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="4">
         <v>8102700</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" ht="16.5">
-      <c r="A59" s="4">
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" ht="16.5">
+      <c r="A61" s="4">
         <v>810280</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="C61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="4">
         <v>8102800</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5">
-      <c r="A60" s="3">
-        <v>810290</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="3">
-        <v>8102900</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5">
-      <c r="A61" s="3">
-        <v>810300</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="3">
-        <v>8103000</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
     </row>
     <row r="62" spans="1:18" ht="16.5">
       <c r="A62" s="3">
-        <v>810310</v>
+        <v>810290</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="3">
-        <v>8103100</v>
+        <v>8102900</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2702,16 +2720,16 @@
     </row>
     <row r="63" spans="1:18" ht="16.5">
       <c r="A63" s="3">
-        <v>810320</v>
+        <v>810300</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="3">
-        <v>8103200</v>
+        <v>8103000</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2730,16 +2748,16 @@
     </row>
     <row r="64" spans="1:18" ht="16.5">
       <c r="A64" s="3">
-        <v>810330</v>
+        <v>810310</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="3">
-        <v>8103300</v>
+        <v>8103100</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2758,16 +2776,16 @@
     </row>
     <row r="65" spans="1:18" ht="16.5">
       <c r="A65" s="3">
-        <v>810331</v>
+        <v>810320</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="3">
-        <v>8103301</v>
+        <v>8103200</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2786,16 +2804,16 @@
     </row>
     <row r="66" spans="1:18" ht="16.5">
       <c r="A66" s="3">
-        <v>810340</v>
+        <v>810330</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="3">
-        <v>8103400</v>
+        <v>8103300</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2814,16 +2832,16 @@
     </row>
     <row r="67" spans="1:18" ht="16.5">
       <c r="A67" s="3">
-        <v>810341</v>
+        <v>810331</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="3">
-        <v>8103401</v>
+        <v>8103301</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2842,16 +2860,16 @@
     </row>
     <row r="68" spans="1:18" ht="16.5">
       <c r="A68" s="3">
-        <v>810350</v>
+        <v>810340</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="3">
-        <v>8103500</v>
+        <v>8103400</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2870,16 +2888,16 @@
     </row>
     <row r="69" spans="1:18" ht="16.5">
       <c r="A69" s="3">
-        <v>810351</v>
+        <v>810341</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="3">
-        <v>8103501</v>
+        <v>8103401</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2898,16 +2916,16 @@
     </row>
     <row r="70" spans="1:18" ht="16.5">
       <c r="A70" s="3">
-        <v>810370</v>
+        <v>810350</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="3">
-        <v>8103700</v>
+        <v>8103500</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2926,16 +2944,16 @@
     </row>
     <row r="71" spans="1:18" ht="16.5">
       <c r="A71" s="3">
-        <v>810371</v>
+        <v>810351</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="3">
-        <v>8103701</v>
+        <v>8103501</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2954,16 +2972,16 @@
     </row>
     <row r="72" spans="1:18" ht="16.5">
       <c r="A72" s="3">
-        <v>810380</v>
+        <v>810370</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="3">
-        <v>8103800</v>
+        <v>8103700</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -2982,16 +3000,16 @@
     </row>
     <row r="73" spans="1:18" ht="16.5">
       <c r="A73" s="3">
-        <v>810390</v>
+        <v>810371</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="3">
-        <v>8103900</v>
+        <v>8103701</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3010,16 +3028,16 @@
     </row>
     <row r="74" spans="1:18" ht="16.5">
       <c r="A74" s="3">
-        <v>810400</v>
+        <v>810380</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="3">
-        <v>8104000</v>
+        <v>8103800</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3038,16 +3056,16 @@
     </row>
     <row r="75" spans="1:18" ht="16.5">
       <c r="A75" s="3">
-        <v>810410</v>
+        <v>810390</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="3">
-        <v>8104100</v>
+        <v>8103900</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3066,16 +3084,16 @@
     </row>
     <row r="76" spans="1:18" ht="16.5">
       <c r="A76" s="3">
-        <v>810420</v>
+        <v>810400</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="3">
-        <v>8104200</v>
+        <v>8104000</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3094,16 +3112,16 @@
     </row>
     <row r="77" spans="1:18" ht="16.5">
       <c r="A77" s="3">
-        <v>810430</v>
+        <v>810410</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="3">
-        <v>8104300</v>
+        <v>8104100</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3122,16 +3140,16 @@
     </row>
     <row r="78" spans="1:18" ht="16.5">
       <c r="A78" s="3">
-        <v>810440</v>
+        <v>810420</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="3">
-        <v>8104400</v>
+        <v>8104200</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -3150,17 +3168,16 @@
     </row>
     <row r="79" spans="1:18" ht="16.5">
       <c r="A79" s="3">
-        <v>810450</v>
+        <v>810430</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="3" t="str">
-        <f>A79&amp;"0"</f>
-        <v>8104500</v>
+      <c r="D79" s="3">
+        <v>8104300</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3179,17 +3196,16 @@
     </row>
     <row r="80" spans="1:18" ht="16.5">
       <c r="A80" s="3">
-        <v>810460</v>
+        <v>810440</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="3" t="str">
-        <f>A80&amp;"0"</f>
-        <v>8104600</v>
+      <c r="D80" s="3">
+        <v>8104400</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3208,16 +3224,17 @@
     </row>
     <row r="81" spans="1:18" ht="16.5">
       <c r="A81" s="3">
-        <v>810461</v>
+        <v>810450</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="3">
-        <v>8104601</v>
+      <c r="D81" s="3" t="str">
+        <f>A81&amp;"0"</f>
+        <v>8104500</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3236,16 +3253,17 @@
     </row>
     <row r="82" spans="1:18" ht="16.5">
       <c r="A82" s="3">
-        <v>810470</v>
+        <v>810460</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="3">
-        <v>8104700</v>
+      <c r="D82" s="3" t="str">
+        <f>A82&amp;"0"</f>
+        <v>8104600</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -3264,16 +3282,16 @@
     </row>
     <row r="83" spans="1:18" ht="16.5">
       <c r="A83" s="3">
-        <v>810480</v>
+        <v>810461</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="7">
-        <v>8104800</v>
+      <c r="D83" s="3">
+        <v>8104601</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -3292,16 +3310,16 @@
     </row>
     <row r="84" spans="1:18" ht="16.5">
       <c r="A84" s="3">
-        <v>810481</v>
+        <v>810470</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="7">
-        <v>8104801</v>
+      <c r="D84" s="3">
+        <v>8104700</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -3318,6 +3336,62 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
     </row>
+    <row r="85" spans="1:18" ht="16.5">
+      <c r="A85" s="3">
+        <v>810480</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="7">
+        <v>8104800</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18" ht="16.5">
+      <c r="A86" s="3">
+        <v>810481</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="7">
+        <v>8104801</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF68CD9-1C69-487F-91E6-A082B31BEEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBADDA-DB80-4D0A-8794-F6EBB9CAE9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t>만복도 지속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 킹 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 킹 마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 킹 만복도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,11 +917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3392,6 +3404,90 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
     </row>
+    <row r="87" spans="1:18" ht="16.5">
+      <c r="A87" s="3">
+        <v>810490</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="7">
+        <v>8104900</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18" ht="16.5">
+      <c r="A88" s="3">
+        <v>810491</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="7">
+        <v>8104901</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" ht="16.5">
+      <c r="A89" s="3">
+        <v>810492</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="7">
+        <v>8104902</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBADDA-DB80-4D0A-8794-F6EBB9CAE9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924234F7-0BCC-44C0-91F9-EA7CF5FF6160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -437,6 +437,10 @@
   </si>
   <si>
     <t>슬라임 킹 만복도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐식의 욕망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,11 +921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3488,6 +3492,34 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
+    <row r="90" spans="1:18" ht="16.5">
+      <c r="A90" s="3">
+        <v>810500</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="7">
+        <v>8105000</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924234F7-0BCC-44C0-91F9-EA7CF5FF6160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C530AE-5441-4F0F-A920-27540F90EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -441,6 +441,14 @@
   </si>
   <si>
     <t>탐식의 욕망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식_소화불량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3520,6 +3528,62 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
     </row>
+    <row r="91" spans="1:18" ht="16.5">
+      <c r="A91" s="3">
+        <v>810530</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="7">
+        <v>8105300</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="1:18" ht="16.5">
+      <c r="A92" s="3">
+        <v>810531</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="7">
+        <v>8105301</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C530AE-5441-4F0F-A920-27540F90EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6012B66-D5F9-4A08-99DA-66A4360331AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -449,6 +449,14 @@
   </si>
   <si>
     <t>야식_소화불량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복도 최대치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,11 +937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1622,74 +1630,74 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" ht="16.5">
-      <c r="A23" s="3">
-        <v>810010</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3">
-        <v>8100100</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5">
-      <c r="A24" s="3">
-        <v>810020</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3">
-        <v>8100200</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+    <row r="23" spans="1:18" s="9" customFormat="1" ht="16.5">
+      <c r="A23" s="8">
+        <v>999970</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="8">
+        <v>9999700</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" s="9" customFormat="1" ht="16.5">
+      <c r="A24" s="8">
+        <v>999980</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="8">
+        <v>9999800</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18" ht="16.5">
       <c r="A25" s="3">
-        <v>810030</v>
+        <v>810010</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="3">
-        <v>8100300</v>
+        <v>8100100</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1708,16 +1716,16 @@
     </row>
     <row r="26" spans="1:18" ht="16.5">
       <c r="A26" s="3">
-        <v>810040</v>
+        <v>810020</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>8100400</v>
+        <v>8100200</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1736,16 +1744,16 @@
     </row>
     <row r="27" spans="1:18" ht="16.5">
       <c r="A27" s="3">
-        <v>810050</v>
+        <v>810030</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>8100500</v>
+        <v>8100300</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1764,16 +1772,16 @@
     </row>
     <row r="28" spans="1:18" ht="16.5">
       <c r="A28" s="3">
-        <v>810060</v>
+        <v>810040</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="3">
-        <v>8100600</v>
+        <v>8100400</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1792,16 +1800,16 @@
     </row>
     <row r="29" spans="1:18" ht="16.5">
       <c r="A29" s="3">
-        <v>810070</v>
+        <v>810050</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>8100700</v>
+        <v>8100500</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1820,16 +1828,16 @@
     </row>
     <row r="30" spans="1:18" ht="16.5">
       <c r="A30" s="3">
-        <v>810080</v>
+        <v>810060</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3">
-        <v>8100800</v>
+        <v>8100600</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1848,16 +1856,16 @@
     </row>
     <row r="31" spans="1:18" ht="16.5">
       <c r="A31" s="3">
-        <v>810090</v>
+        <v>810070</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>8100900</v>
+        <v>8100700</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1876,16 +1884,16 @@
     </row>
     <row r="32" spans="1:18" ht="16.5">
       <c r="A32" s="3">
-        <v>810100</v>
+        <v>810080</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="3">
-        <v>8101000</v>
+        <v>8100800</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1904,16 +1912,16 @@
     </row>
     <row r="33" spans="1:18" ht="16.5">
       <c r="A33" s="3">
-        <v>810101</v>
+        <v>810090</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>8101001</v>
+        <v>8100900</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1932,16 +1940,16 @@
     </row>
     <row r="34" spans="1:18" ht="16.5">
       <c r="A34" s="3">
-        <v>810110</v>
+        <v>810100</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="3">
-        <v>8101100</v>
+        <v>8101000</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1960,16 +1968,16 @@
     </row>
     <row r="35" spans="1:18" ht="16.5">
       <c r="A35" s="3">
-        <v>810111</v>
+        <v>810101</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="3">
-        <v>8101101</v>
+        <v>8101001</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1988,16 +1996,16 @@
     </row>
     <row r="36" spans="1:18" ht="16.5">
       <c r="A36" s="3">
-        <v>810120</v>
+        <v>810110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3">
-        <v>8101200</v>
+        <v>8101100</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2016,16 +2024,16 @@
     </row>
     <row r="37" spans="1:18" ht="16.5">
       <c r="A37" s="3">
-        <v>810121</v>
+        <v>810111</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="3">
-        <v>8101201</v>
+        <v>8101101</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2044,16 +2052,16 @@
     </row>
     <row r="38" spans="1:18" ht="16.5">
       <c r="A38" s="3">
-        <v>810130</v>
+        <v>810120</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="3">
-        <v>8101300</v>
+        <v>8101200</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2072,16 +2080,16 @@
     </row>
     <row r="39" spans="1:18" ht="16.5">
       <c r="A39" s="3">
-        <v>810131</v>
+        <v>810121</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="3">
-        <v>8101301</v>
+        <v>8101201</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2100,16 +2108,16 @@
     </row>
     <row r="40" spans="1:18" ht="16.5">
       <c r="A40" s="3">
-        <v>810140</v>
+        <v>810130</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="3">
-        <v>8101400</v>
+        <v>8101300</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2128,16 +2136,16 @@
     </row>
     <row r="41" spans="1:18" ht="16.5">
       <c r="A41" s="3">
-        <v>810141</v>
+        <v>810131</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="3">
-        <v>8101401</v>
+        <v>8101301</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2156,16 +2164,16 @@
     </row>
     <row r="42" spans="1:18" ht="16.5">
       <c r="A42" s="3">
-        <v>810142</v>
+        <v>810140</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="3">
-        <v>8101402</v>
+        <v>8101400</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2184,16 +2192,16 @@
     </row>
     <row r="43" spans="1:18" ht="16.5">
       <c r="A43" s="3">
-        <v>810150</v>
+        <v>810141</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="3">
-        <v>8101500</v>
+        <v>8101401</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2212,16 +2220,16 @@
     </row>
     <row r="44" spans="1:18" ht="16.5">
       <c r="A44" s="3">
-        <v>810151</v>
+        <v>810142</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="3">
-        <v>8101501</v>
+        <v>8101402</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2240,16 +2248,16 @@
     </row>
     <row r="45" spans="1:18" ht="16.5">
       <c r="A45" s="3">
-        <v>810152</v>
+        <v>810150</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="3">
-        <v>8101502</v>
+        <v>8101500</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2268,16 +2276,16 @@
     </row>
     <row r="46" spans="1:18" ht="16.5">
       <c r="A46" s="3">
-        <v>810160</v>
+        <v>810151</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="3">
-        <v>8101600</v>
+        <v>8101501</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2296,16 +2304,16 @@
     </row>
     <row r="47" spans="1:18" ht="16.5">
       <c r="A47" s="3">
-        <v>810170</v>
+        <v>810152</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="3">
-        <v>8101700</v>
+        <v>8101502</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2324,16 +2332,16 @@
     </row>
     <row r="48" spans="1:18" ht="16.5">
       <c r="A48" s="3">
-        <v>810180</v>
+        <v>810160</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="3">
-        <v>8101800</v>
+        <v>8101600</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2352,16 +2360,16 @@
     </row>
     <row r="49" spans="1:18" ht="16.5">
       <c r="A49" s="3">
-        <v>810190</v>
+        <v>810170</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="3">
-        <v>8101900</v>
+        <v>8101700</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2380,16 +2388,16 @@
     </row>
     <row r="50" spans="1:18" ht="16.5">
       <c r="A50" s="3">
-        <v>810191</v>
+        <v>810180</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="3">
-        <v>8101901</v>
+        <v>8101800</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2408,16 +2416,16 @@
     </row>
     <row r="51" spans="1:18" ht="16.5">
       <c r="A51" s="3">
-        <v>810200</v>
+        <v>810190</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="3">
-        <v>8102000</v>
+        <v>8101900</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2436,16 +2444,16 @@
     </row>
     <row r="52" spans="1:18" ht="16.5">
       <c r="A52" s="3">
-        <v>810210</v>
+        <v>810191</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="3">
-        <v>8102100</v>
+        <v>8101901</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2464,16 +2472,16 @@
     </row>
     <row r="53" spans="1:18" ht="16.5">
       <c r="A53" s="3">
-        <v>810220</v>
+        <v>810200</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="3">
-        <v>8102200</v>
+        <v>8102000</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2492,16 +2500,16 @@
     </row>
     <row r="54" spans="1:18" ht="16.5">
       <c r="A54" s="3">
-        <v>810230</v>
+        <v>810210</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="3">
-        <v>8102300</v>
+        <v>8102100</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2520,16 +2528,16 @@
     </row>
     <row r="55" spans="1:18" ht="16.5">
       <c r="A55" s="3">
-        <v>810240</v>
+        <v>810220</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="3">
-        <v>8102400</v>
+        <v>8102200</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2548,16 +2556,16 @@
     </row>
     <row r="56" spans="1:18" ht="16.5">
       <c r="A56" s="3">
-        <v>810241</v>
+        <v>810230</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="3">
-        <v>8102400</v>
+        <v>8102300</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2576,16 +2584,16 @@
     </row>
     <row r="57" spans="1:18" ht="16.5">
       <c r="A57" s="3">
-        <v>810250</v>
+        <v>810240</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="3">
-        <v>8102500</v>
+        <v>8102400</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2604,16 +2612,16 @@
     </row>
     <row r="58" spans="1:18" ht="16.5">
       <c r="A58" s="3">
-        <v>810251</v>
+        <v>810241</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="3">
-        <v>8102501</v>
+        <v>8102400</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2632,16 +2640,16 @@
     </row>
     <row r="59" spans="1:18" ht="16.5">
       <c r="A59" s="3">
-        <v>810260</v>
+        <v>810250</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="3">
-        <v>8102600</v>
+        <v>8102500</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2659,129 +2667,129 @@
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="16.5">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
+        <v>810251</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="3">
+        <v>8102501</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" ht="16.5">
+      <c r="A61" s="3">
+        <v>810260</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="3">
+        <v>8102600</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" ht="16.5">
+      <c r="A62" s="4">
         <v>810270</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="C62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="4">
         <v>8102700</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5">
-      <c r="A61" s="4">
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:18" ht="16.5">
+      <c r="A63" s="4">
         <v>810280</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="4">
+      <c r="C63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="4">
         <v>8102800</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" ht="16.5">
-      <c r="A62" s="3">
-        <v>810290</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="3">
-        <v>8102900</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5">
-      <c r="A63" s="3">
-        <v>810300</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="3">
-        <v>8103000</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
     </row>
     <row r="64" spans="1:18" ht="16.5">
       <c r="A64" s="3">
-        <v>810310</v>
+        <v>810290</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="3">
-        <v>8103100</v>
+        <v>8102900</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2800,16 +2808,16 @@
     </row>
     <row r="65" spans="1:18" ht="16.5">
       <c r="A65" s="3">
-        <v>810320</v>
+        <v>810300</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="3">
-        <v>8103200</v>
+        <v>8103000</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2828,16 +2836,16 @@
     </row>
     <row r="66" spans="1:18" ht="16.5">
       <c r="A66" s="3">
-        <v>810330</v>
+        <v>810310</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="3">
-        <v>8103300</v>
+        <v>8103100</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2856,16 +2864,16 @@
     </row>
     <row r="67" spans="1:18" ht="16.5">
       <c r="A67" s="3">
-        <v>810331</v>
+        <v>810320</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="3">
-        <v>8103301</v>
+        <v>8103200</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2884,16 +2892,16 @@
     </row>
     <row r="68" spans="1:18" ht="16.5">
       <c r="A68" s="3">
-        <v>810340</v>
+        <v>810330</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="3">
-        <v>8103400</v>
+        <v>8103300</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2912,16 +2920,16 @@
     </row>
     <row r="69" spans="1:18" ht="16.5">
       <c r="A69" s="3">
-        <v>810341</v>
+        <v>810331</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="3">
-        <v>8103401</v>
+        <v>8103301</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2940,16 +2948,16 @@
     </row>
     <row r="70" spans="1:18" ht="16.5">
       <c r="A70" s="3">
-        <v>810350</v>
+        <v>810340</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="3">
-        <v>8103500</v>
+        <v>8103400</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2968,16 +2976,16 @@
     </row>
     <row r="71" spans="1:18" ht="16.5">
       <c r="A71" s="3">
-        <v>810351</v>
+        <v>810341</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="3">
-        <v>8103501</v>
+        <v>8103401</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2996,16 +3004,16 @@
     </row>
     <row r="72" spans="1:18" ht="16.5">
       <c r="A72" s="3">
-        <v>810370</v>
+        <v>810350</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="3">
-        <v>8103700</v>
+        <v>8103500</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3024,16 +3032,16 @@
     </row>
     <row r="73" spans="1:18" ht="16.5">
       <c r="A73" s="3">
-        <v>810371</v>
+        <v>810351</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="3">
-        <v>8103701</v>
+        <v>8103501</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3052,16 +3060,16 @@
     </row>
     <row r="74" spans="1:18" ht="16.5">
       <c r="A74" s="3">
-        <v>810380</v>
+        <v>810370</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="3">
-        <v>8103800</v>
+        <v>8103700</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3080,16 +3088,16 @@
     </row>
     <row r="75" spans="1:18" ht="16.5">
       <c r="A75" s="3">
-        <v>810390</v>
+        <v>810371</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="3">
-        <v>8103900</v>
+        <v>8103701</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3108,16 +3116,16 @@
     </row>
     <row r="76" spans="1:18" ht="16.5">
       <c r="A76" s="3">
-        <v>810400</v>
+        <v>810380</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="3">
-        <v>8104000</v>
+        <v>8103800</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3136,16 +3144,16 @@
     </row>
     <row r="77" spans="1:18" ht="16.5">
       <c r="A77" s="3">
-        <v>810410</v>
+        <v>810390</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="3">
-        <v>8104100</v>
+        <v>8103900</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3164,16 +3172,16 @@
     </row>
     <row r="78" spans="1:18" ht="16.5">
       <c r="A78" s="3">
-        <v>810420</v>
+        <v>810400</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="3">
-        <v>8104200</v>
+        <v>8104000</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -3192,16 +3200,16 @@
     </row>
     <row r="79" spans="1:18" ht="16.5">
       <c r="A79" s="3">
-        <v>810430</v>
+        <v>810410</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="3">
-        <v>8104300</v>
+        <v>8104100</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3220,16 +3228,16 @@
     </row>
     <row r="80" spans="1:18" ht="16.5">
       <c r="A80" s="3">
-        <v>810440</v>
+        <v>810420</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="3">
-        <v>8104400</v>
+        <v>8104200</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3248,17 +3256,16 @@
     </row>
     <row r="81" spans="1:18" ht="16.5">
       <c r="A81" s="3">
-        <v>810450</v>
+        <v>810430</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="3" t="str">
-        <f>A81&amp;"0"</f>
-        <v>8104500</v>
+      <c r="D81" s="3">
+        <v>8104300</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3277,17 +3284,16 @@
     </row>
     <row r="82" spans="1:18" ht="16.5">
       <c r="A82" s="3">
-        <v>810460</v>
+        <v>810440</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="3" t="str">
-        <f>A82&amp;"0"</f>
-        <v>8104600</v>
+      <c r="D82" s="3">
+        <v>8104400</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -3306,16 +3312,17 @@
     </row>
     <row r="83" spans="1:18" ht="16.5">
       <c r="A83" s="3">
-        <v>810461</v>
+        <v>810450</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="3">
-        <v>8104601</v>
+      <c r="D83" s="3" t="str">
+        <f>A83&amp;"0"</f>
+        <v>8104500</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -3334,16 +3341,17 @@
     </row>
     <row r="84" spans="1:18" ht="16.5">
       <c r="A84" s="3">
-        <v>810470</v>
+        <v>810460</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="3">
-        <v>8104700</v>
+      <c r="D84" s="3" t="str">
+        <f>A84&amp;"0"</f>
+        <v>8104600</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -3362,16 +3370,16 @@
     </row>
     <row r="85" spans="1:18" ht="16.5">
       <c r="A85" s="3">
-        <v>810480</v>
+        <v>810461</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="7">
-        <v>8104800</v>
+      <c r="D85" s="3">
+        <v>8104601</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -3390,16 +3398,16 @@
     </row>
     <row r="86" spans="1:18" ht="16.5">
       <c r="A86" s="3">
-        <v>810481</v>
+        <v>810470</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="7">
-        <v>8104801</v>
+      <c r="D86" s="3">
+        <v>8104700</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -3418,16 +3426,16 @@
     </row>
     <row r="87" spans="1:18" ht="16.5">
       <c r="A87" s="3">
-        <v>810490</v>
+        <v>810480</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="7">
-        <v>8104900</v>
+        <v>8104800</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -3446,16 +3454,16 @@
     </row>
     <row r="88" spans="1:18" ht="16.5">
       <c r="A88" s="3">
-        <v>810491</v>
+        <v>810481</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="7">
-        <v>8104901</v>
+        <v>8104801</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -3474,16 +3482,16 @@
     </row>
     <row r="89" spans="1:18" ht="16.5">
       <c r="A89" s="3">
-        <v>810492</v>
+        <v>810490</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="7">
-        <v>8104902</v>
+        <v>8104900</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -3502,16 +3510,16 @@
     </row>
     <row r="90" spans="1:18" ht="16.5">
       <c r="A90" s="3">
-        <v>810500</v>
+        <v>810491</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="7">
-        <v>8105000</v>
+        <v>8104901</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -3530,16 +3538,16 @@
     </row>
     <row r="91" spans="1:18" ht="16.5">
       <c r="A91" s="3">
-        <v>810530</v>
+        <v>810492</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="7">
-        <v>8105300</v>
+        <v>8104902</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -3558,16 +3566,16 @@
     </row>
     <row r="92" spans="1:18" ht="16.5">
       <c r="A92" s="3">
-        <v>810531</v>
+        <v>810500</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="7">
-        <v>8105301</v>
+        <v>8105000</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -3584,6 +3592,62 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
     </row>
+    <row r="93" spans="1:18" ht="16.5">
+      <c r="A93" s="3">
+        <v>810530</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="7">
+        <v>8105300</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18" ht="16.5">
+      <c r="A94" s="3">
+        <v>810531</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="7">
+        <v>8105301</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6012B66-D5F9-4A08-99DA-66A4360331AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7703BD5-7B10-46D8-B78E-DD2E37D22E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -457,6 +457,18 @@
   </si>
   <si>
     <t>스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_만복도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭식_구토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 슬라임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,11 +949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3648,6 +3660,90 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
     </row>
+    <row r="95" spans="1:18" ht="16.5">
+      <c r="A95" s="3">
+        <v>810540</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="7">
+        <v>8105400</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" ht="16.5">
+      <c r="A96" s="3">
+        <v>810541</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="7">
+        <v>8105401</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="1:18" ht="16.5">
+      <c r="A97" s="3">
+        <v>810550</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="3">
+        <v>8105500</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7703BD5-7B10-46D8-B78E-DD2E37D22E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFC9405-A696-44F4-8DEC-CE6B256B638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -470,6 +470,12 @@
   <si>
     <t>위액 슬라임</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼로리 방출</t>
+  </si>
+  <si>
+    <t>후라이팬</t>
   </si>
 </sst>
 </file>
@@ -949,11 +955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3606,16 +3612,16 @@
     </row>
     <row r="93" spans="1:18" ht="16.5">
       <c r="A93" s="3">
-        <v>810530</v>
+        <v>810510</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="7">
-        <v>8105300</v>
+        <v>8105100</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -3634,16 +3640,16 @@
     </row>
     <row r="94" spans="1:18" ht="16.5">
       <c r="A94" s="3">
-        <v>810531</v>
+        <v>810520</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="7">
-        <v>8105301</v>
+        <v>8105200</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -3662,16 +3668,16 @@
     </row>
     <row r="95" spans="1:18" ht="16.5">
       <c r="A95" s="3">
-        <v>810540</v>
+        <v>810530</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="7">
-        <v>8105400</v>
+        <v>8105300</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -3690,16 +3696,16 @@
     </row>
     <row r="96" spans="1:18" ht="16.5">
       <c r="A96" s="3">
-        <v>810541</v>
+        <v>810531</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="7">
-        <v>8105401</v>
+        <v>8105301</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -3718,16 +3724,16 @@
     </row>
     <row r="97" spans="1:18" ht="16.5">
       <c r="A97" s="3">
-        <v>810550</v>
+        <v>810540</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="3">
-        <v>8105500</v>
+      <c r="D97" s="7">
+        <v>8105400</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -3744,6 +3750,62 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
+    <row r="98" spans="1:18" ht="16.5">
+      <c r="A98" s="3">
+        <v>810541</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="7">
+        <v>8105401</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="1:18" ht="16.5">
+      <c r="A99" s="3">
+        <v>810550</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="3">
+        <v>8105500</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFC9405-A696-44F4-8DEC-CE6B256B638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840350A7-FCDE-4E53-A298-C22EE99CEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -476,6 +476,16 @@
   </si>
   <si>
     <t>후라이팬</t>
+  </si>
+  <si>
+    <t>몽마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+  </si>
+  <si>
+    <t>전투준비</t>
   </si>
 </sst>
 </file>
@@ -955,11 +965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3806,6 +3816,90 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
     </row>
+    <row r="100" spans="1:18" ht="16.5">
+      <c r="A100" s="3">
+        <v>810560</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="3">
+        <v>8105600</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="1:18" ht="16.5">
+      <c r="A101" s="3">
+        <v>810570</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="3">
+        <v>8105700</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="1:18" ht="16.5">
+      <c r="A102" s="3">
+        <v>810580</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="3">
+        <v>8105800</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840350A7-FCDE-4E53-A298-C22EE99CEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722CBAB5-E9B8-4D9D-B8F2-F5CC349C2272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -486,6 +486,16 @@
   </si>
   <si>
     <t>전투준비</t>
+  </si>
+  <si>
+    <t>식욕 폭발</t>
+  </si>
+  <si>
+    <t>공허의 바다</t>
+  </si>
+  <si>
+    <t>공허의 바다_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -965,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D108:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3900,6 +3910,90 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
     </row>
+    <row r="103" spans="1:18" ht="16.5">
+      <c r="A103" s="3">
+        <v>810590</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="3">
+        <v>8105900</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+    </row>
+    <row r="104" spans="1:18" ht="16.5">
+      <c r="A104" s="3">
+        <v>810600</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="3">
+        <v>8106000</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:18" ht="16.5">
+      <c r="A105" s="3">
+        <v>810601</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="3">
+        <v>8106001</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722CBAB5-E9B8-4D9D-B8F2-F5CC349C2272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D5A12-72C3-4B1C-A139-0632525A0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -496,6 +496,15 @@
   <si>
     <t>공허의 바다_공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만찬</t>
+  </si>
+  <si>
+    <t>재료손질</t>
+  </si>
+  <si>
+    <t>꼬치구이</t>
   </si>
 </sst>
 </file>
@@ -975,11 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D108:D109"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -3994,6 +4003,90 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
     </row>
+    <row r="106" spans="1:18" ht="16.5">
+      <c r="A106" s="3">
+        <v>810610</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="3">
+        <v>8106100</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+    </row>
+    <row r="107" spans="1:18" ht="16.5">
+      <c r="A107" s="3">
+        <v>810620</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="3">
+        <v>8106200</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+    </row>
+    <row r="108" spans="1:18" ht="16.5">
+      <c r="A108" s="3">
+        <v>810630</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="3">
+        <v>8106300</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D5A12-72C3-4B1C-A139-0632525A0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F46C1-EF44-49F0-9A5E-8E741C67DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -505,6 +505,10 @@
   </si>
   <si>
     <t>꼬치구이</t>
+  </si>
+  <si>
+    <t>소룡포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -984,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4087,6 +4091,34 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
     </row>
+    <row r="109" spans="1:18" ht="16.5">
+      <c r="A109" s="3">
+        <v>810640</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="3">
+        <v>8106400</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F46C1-EF44-49F0-9A5E-8E741C67DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0700252-70F4-452E-BFDF-BCB388391490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -508,6 +508,10 @@
   </si>
   <si>
     <t>소룡포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집어삼키기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4119,6 +4123,34 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
     </row>
+    <row r="110" spans="1:18" ht="16.5">
+      <c r="A110" s="3">
+        <v>810650</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="3">
+        <v>8106500</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0700252-70F4-452E-BFDF-BCB388391490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A78F7-5E00-48D4-BF22-39011C6373F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="135">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -512,6 +512,16 @@
   </si>
   <si>
     <t>집어삼키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지독한숙취</t>
+  </si>
+  <si>
+    <t>꿰뚫는일격</t>
+  </si>
+  <si>
+    <t>지독한숙취_소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4151,6 +4161,90 @@
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
     </row>
+    <row r="111" spans="1:18" ht="16.5">
+      <c r="A111" s="3">
+        <v>810660</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="3">
+        <v>8106600</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+    </row>
+    <row r="112" spans="1:18" ht="16.5">
+      <c r="A112" s="3">
+        <v>810661</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="3">
+        <v>8106601</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+    </row>
+    <row r="113" spans="1:18" ht="16.5">
+      <c r="A113" s="3">
+        <v>810670</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="3">
+        <v>8106700</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A78F7-5E00-48D4-BF22-39011C6373F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA0847-C0C1-469A-80CB-58F2972DEDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -523,6 +523,12 @@
   <si>
     <t>지독한숙취_소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕의장막</t>
+  </si>
+  <si>
+    <t>마왕의비수</t>
   </si>
 </sst>
 </file>
@@ -1002,11 +1008,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4245,6 +4251,62 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
     </row>
+    <row r="114" spans="1:18" ht="16.5">
+      <c r="A114" s="3">
+        <v>810680</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="3">
+        <v>8106800</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+    </row>
+    <row r="115" spans="1:18" ht="16.5">
+      <c r="A115" s="3">
+        <v>810690</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="3">
+        <v>8106900</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDA0847-C0C1-469A-80CB-58F2972DEDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD44E57-FD4E-42DD-8836-137840074EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="138">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -529,6 +529,10 @@
   </si>
   <si>
     <t>마왕의비수</t>
+  </si>
+  <si>
+    <t>마왕의가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,11 +1012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4307,6 +4311,34 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
     </row>
+    <row r="116" spans="1:18" ht="16.5">
+      <c r="A116" s="3">
+        <v>810700</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="3">
+        <v>8107000</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD44E57-FD4E-42DD-8836-137840074EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C48FFE-DFBB-4BE2-BFA7-28BCB0DD3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -532,6 +532,10 @@
   </si>
   <si>
     <t>마왕의가호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전소화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4339,6 +4343,34 @@
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
     </row>
+    <row r="117" spans="1:18" ht="16.5">
+      <c r="A117" s="3">
+        <v>810710</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="3">
+        <v>8107100</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C48FFE-DFBB-4BE2-BFA7-28BCB0DD3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653388F5-862F-47B3-8C58-FF4C55ABFD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="142">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -536,6 +536,17 @@
   </si>
   <si>
     <t>완전소화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부패의 숨결</t>
+  </si>
+  <si>
+    <t>위액 분비_공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위액 분비_방어력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,11 +1027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4371,6 +4382,90 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
     </row>
+    <row r="118" spans="1:18" ht="16.5">
+      <c r="A118" s="3">
+        <v>810720</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="3">
+        <v>8107200</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+    </row>
+    <row r="119" spans="1:18" ht="16.5">
+      <c r="A119" s="3">
+        <v>810730</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="3">
+        <v>8107300</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+    </row>
+    <row r="120" spans="1:18" ht="16.5">
+      <c r="A120" s="3">
+        <v>810731</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="3">
+        <v>8107301</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653388F5-862F-47B3-8C58-FF4C55ABFD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB02EE5-5488-48DF-BAD6-93B763C10FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="144">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -548,6 +548,12 @@
   <si>
     <t>위액 분비_방어력 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박</t>
+  </si>
+  <si>
+    <t>조명탄</t>
   </si>
 </sst>
 </file>
@@ -1027,11 +1033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4466,6 +4472,62 @@
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
     </row>
+    <row r="121" spans="1:18" ht="16.5">
+      <c r="A121" s="3">
+        <v>810740</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="3">
+        <v>8107400</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+    </row>
+    <row r="122" spans="1:18" ht="16.5">
+      <c r="A122" s="3">
+        <v>810750</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="3">
+        <v>8107500</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ERang/Excels/AiGroupData.xlsx
+++ b/Assets/ERang/Excels/AiGroupData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB02EE5-5488-48DF-BAD6-93B763C10FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4757DC45-2D7F-4FE6-9308-719045E633C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="145">
   <si>
     <t>#NameDesc</t>
   </si>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>조명탄</t>
+  </si>
+  <si>
+    <t>황금고블린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1033,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -4528,6 +4532,34 @@
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
     </row>
+    <row r="123" spans="1:18" ht="16.5">
+      <c r="A123" s="3">
+        <v>810760</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="3">
+        <v>8107600</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
